--- a/StructureDefinition-ext-R5-ClinicalUseDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ClinicalUseDefinition.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -604,7 +604,7 @@
   </si>
   <si>
     <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept`.
-Element `CodeableReference.concept` is mapped to FHIR R4 structure `Reference`, but has no target element specified.</t>
+Element `CodeableReference.concept` is will have a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:concept.id</t>
@@ -634,7 +634,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` is mapped to FHIR R4 structure `CodeableConcept`, but has no target element specified.
+    <t>Element `CodeableReference.reference` is will have a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
 Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference`.</t>
   </si>
   <si>
@@ -832,6 +832,7 @@
   </si>
   <si>
     <t>Element `ClinicalUseDefinition.contraindication.indication` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.contraindication.indication` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `ClinicalUseDefinition.contraindication.indication` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
@@ -1269,6 +1270,7 @@
   </si>
   <si>
     <t>Element `ClinicalUseDefinition.indication.undesirableEffect` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
+Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.indication.undesirableEffect` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `ClinicalUseDefinition.indication.undesirableEffect` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
@@ -1611,7 +1613,8 @@
     <t>The population group to which this applies.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.population` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.population` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+Element `ClinicalUseDefinition.population` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:population.id</t>
@@ -1642,7 +1645,8 @@
     <t>Logic used by the clinical use definition.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.library` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.library` with an unmapped Canonical type: `http://hl7.org/fhir/StructureDefinition/alternate-canonical`.
+Element `ClinicalUseDefinition.library` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:library.id</t>
@@ -2259,7 +2263,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="166.71875" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="211.59765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-ClinicalUseDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ClinicalUseDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11204" uniqueCount="660">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11204" uniqueCount="652">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,7 +408,7 @@
     <t>Overall defining type of this clinical use definition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-clinical-use-definition-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-use-definition-type-for-R4</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -455,7 +455,7 @@
     <t>A categorisation for a clinical use information item.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-clinical-use-definition-category-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-use-definition-category-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:status</t>
@@ -470,7 +470,8 @@
     <t>Whether this is a current issue or one that has been retired etc.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.status` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.status`: `http://hl7.org/fhir/StructureDefinition/artifact-status`.
+Element `ClinicalUseDefinition.status` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:status.id</t>
@@ -483,12 +484,6 @@
   </si>
   <si>
     <t>Extension.extension:status.value[x]</t>
-  </si>
-  <si>
-    <t>The lifecycle status of an artifact.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-publication-status-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:contraindication</t>
@@ -603,8 +598,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.
-Element `CodeableReference.concept` has a context of Reference based on following the parent source element upwards and mapping to `Reference`.</t>
+    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:concept.id</t>
@@ -619,7 +613,7 @@
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-disease-symptom-procedure-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-disease-symptom-procedure-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:reference</t>
@@ -634,8 +628,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has a context of CodeableConcept based on following the parent source element upwards and mapping to `CodeableConcept`.
-Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:reference.id</t>
@@ -650,7 +643,7 @@
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|0.0.1-snapshot-3|ObservationDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|ObservationDefinition)
 </t>
   </si>
   <si>
@@ -722,7 +715,7 @@
     <t>Extension.extension:contraindication.extension:diseaseStatus.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-disease-status-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-disease-status-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseStatus.extension:reference</t>
@@ -848,7 +841,7 @@
     <t>Extension.extension:contraindication.extension:indication.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|0.0.1-snapshot-3|Basic|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|Basic)
 </t>
   </si>
   <si>
@@ -943,7 +936,7 @@
     <t>Classification of relationship between a therapy and a contraindication or an indication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-therapy-relationship-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-therapy-relationship-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment</t>
@@ -1010,7 +1003,7 @@
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-therapy-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-therapy-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment.extension:reference</t>
@@ -1028,7 +1021,7 @@
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|0.0.1-snapshot-3|SubstanceSpecification|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|SubstanceSpecification|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition)
 </t>
   </si>
   <si>
@@ -1330,7 +1323,7 @@
     <t>Extension.extension:indication.extension:intendedEffect.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-product-intended-use-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-product-intended-use-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:intendedEffect.extension:reference</t>
@@ -1533,17 +1526,8 @@
     <t>Extension.extension:interaction.extension:interactant.extension:item.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|0.0.1-snapshot-3|ObservationDefinition|4.0.1)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|ObservationDefinition)
 CodeableConcept</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>An interactant - a substance that may have a clinically significant effect on another.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-interactant-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:interactant.url</t>
@@ -1577,10 +1561,13 @@
     <t>Extension.extension:interaction.extension:type.value[x]</t>
   </si>
   <si>
+    <t>example</t>
+  </si>
+  <si>
     <t>A categorisation for an interaction between two substances.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-interaction-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:effect</t>
@@ -1635,7 +1622,7 @@
     <t>Extension.extension:interaction.extension:effect.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-interaction-effect-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-effect-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:effect.extension:reference</t>
@@ -1690,7 +1677,7 @@
     <t>A categorisation for incidence of occurence of an interaction.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-interaction-incidence-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-incidence-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:management</t>
@@ -1721,12 +1708,6 @@
     <t>Extension.extension:interaction.extension:management.value[x]</t>
   </si>
   <si>
-    <t>A type of management for an interaction of a medication or other substance.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-interaction-management-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:interaction.url</t>
   </si>
   <si>
@@ -1761,7 +1742,7 @@
     <t>Extension.extension:population.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)
 </t>
   </si>
   <si>
@@ -1793,7 +1774,7 @@
     <t>Extension.extension:library.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Library|0.0.1-snapshot-3|Library|4.0.1)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Library|Library)
 </t>
   </si>
   <si>
@@ -1867,7 +1848,7 @@
     <t>Extension.extension:undesirableEffect.extension:symptomConditionEffect.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-undesirable-effect-symptom-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-undesirable-effect-symptom-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:undesirableEffect.extension:symptomConditionEffect.extension:reference</t>
@@ -1919,12 +1900,6 @@
     <t>Extension.extension:undesirableEffect.extension:classification.value[x]</t>
   </si>
   <si>
-    <t>A categorisation for an undesirable effect.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-undesirable-effect-classification-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:undesirableEffect.extension:frequencyOfOccurrence</t>
   </si>
   <si>
@@ -1956,7 +1931,7 @@
     <t>A categorisation for a frequency of occurence of an undesirable effect.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-undesirable-effect-frequency-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-undesirable-effect-frequency-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:undesirableEffect.url</t>
@@ -2049,7 +2024,7 @@
     <t>Classification of warning type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/ValueSet/ValueSet-R5-warning-type-for-R4|0.0.1-snapshot-3</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-warning-type-for-R4</t>
   </si>
   <si>
     <t>Extension.extension:warning.url</t>
@@ -2406,7 +2381,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.05859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="82.609375" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="64.11328125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4368,13 +4343,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>138</v>
+        <v>77</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>150</v>
+        <v>77</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>151</v>
+        <v>77</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4412,13 +4387,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4443,14 +4418,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4519,7 +4494,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -4622,7 +4597,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -4725,13 +4700,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -4756,14 +4731,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4832,10 +4807,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4935,10 +4910,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5038,13 +5013,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C26" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C26" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>77</v>
@@ -5069,10 +5044,10 @@
         <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5143,10 +5118,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5246,10 +5221,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5351,10 +5326,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5394,7 +5369,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>77</v>
@@ -5456,10 +5431,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5485,13 +5460,13 @@
         <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M30" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N30" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N30" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5499,7 +5474,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -5561,13 +5536,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -5592,14 +5567,14 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5668,10 +5643,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5771,10 +5746,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5876,10 +5851,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5919,7 +5894,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -5981,10 +5956,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -6010,10 +5985,10 @@
         <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6044,7 +6019,7 @@
       </c>
       <c r="Y35" s="2"/>
       <c r="Z35" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6082,13 +6057,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -6113,14 +6088,14 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6189,10 +6164,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6292,10 +6267,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6397,10 +6372,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6440,7 +6415,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -6502,10 +6477,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6528,13 +6503,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6605,10 +6580,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6648,7 +6623,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -6710,10 +6685,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6736,13 +6711,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6813,13 +6788,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6844,14 +6819,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6920,10 +6895,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7023,10 +6998,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7126,13 +7101,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B46" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C46" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C46" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -7157,10 +7132,10 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7231,10 +7206,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7334,10 +7309,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7439,10 +7414,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7482,7 +7457,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -7544,10 +7519,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7573,13 +7548,13 @@
         <v>87</v>
       </c>
       <c r="L50" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M50" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N50" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M50" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N50" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7587,7 +7562,7 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>77</v>
@@ -7649,13 +7624,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -7680,14 +7655,14 @@
         <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7756,10 +7731,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7859,10 +7834,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7964,10 +7939,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -8007,7 +7982,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -8069,10 +8044,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8098,10 +8073,10 @@
         <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8132,7 +8107,7 @@
       </c>
       <c r="Y55" s="2"/>
       <c r="Z55" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8170,13 +8145,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8201,14 +8176,14 @@
         <v>93</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8277,10 +8252,10 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8380,10 +8355,10 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8485,10 +8460,10 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8528,7 +8503,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>77</v>
@@ -8590,10 +8565,10 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8616,13 +8591,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8693,10 +8668,10 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8736,7 +8711,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8798,10 +8773,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8824,13 +8799,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8901,13 +8876,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D63" t="s" s="2">
         <v>77</v>
@@ -8932,14 +8907,14 @@
         <v>93</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>77</v>
@@ -9008,10 +8983,10 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9111,10 +9086,10 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9214,13 +9189,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B66" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C66" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C66" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -9245,10 +9220,10 @@
         <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9319,10 +9294,10 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9422,10 +9397,10 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9527,10 +9502,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9570,7 +9545,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9632,10 +9607,10 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9661,13 +9636,13 @@
         <v>87</v>
       </c>
       <c r="L70" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M70" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N70" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N70" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9675,7 +9650,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>77</v>
@@ -9737,13 +9712,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9768,14 +9743,14 @@
         <v>93</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9844,10 +9819,10 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9947,10 +9922,10 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10052,10 +10027,10 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10095,7 +10070,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -10157,10 +10132,10 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10186,10 +10161,10 @@
         <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10220,7 +10195,7 @@
       </c>
       <c r="Y75" s="2"/>
       <c r="Z75" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -10258,13 +10233,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -10289,14 +10264,14 @@
         <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10365,10 +10340,10 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10468,10 +10443,10 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10573,10 +10548,10 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10616,7 +10591,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10678,10 +10653,10 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10704,13 +10679,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10781,10 +10756,10 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10824,7 +10799,7 @@
       </c>
       <c r="Q81" s="2"/>
       <c r="R81" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S81" t="s" s="2">
         <v>77</v>
@@ -10886,10 +10861,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10912,13 +10887,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -10989,13 +10964,13 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B83" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D83" t="s" s="2">
         <v>77</v>
@@ -11020,14 +10995,14 @@
         <v>93</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="P83" t="s" s="2">
         <v>77</v>
@@ -11096,10 +11071,10 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11199,10 +11174,10 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11304,10 +11279,10 @@
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11347,7 +11322,7 @@
       </c>
       <c r="Q86" s="2"/>
       <c r="R86" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S86" t="s" s="2">
         <v>77</v>
@@ -11409,10 +11384,10 @@
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11435,13 +11410,13 @@
         <v>77</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="N87" s="2"/>
       <c r="O87" s="2"/>
@@ -11512,13 +11487,13 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B88" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D88" t="s" s="2">
         <v>77</v>
@@ -11543,16 +11518,16 @@
         <v>93</v>
       </c>
       <c r="L88" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M88" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N88" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M88" t="s" s="2">
+      <c r="O88" t="s" s="2">
         <v>272</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>273</v>
-      </c>
-      <c r="O88" t="s" s="2">
-        <v>274</v>
       </c>
       <c r="P88" t="s" s="2">
         <v>77</v>
@@ -11621,10 +11596,10 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11724,10 +11699,10 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11829,10 +11804,10 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11872,7 +11847,7 @@
       </c>
       <c r="Q91" s="2"/>
       <c r="R91" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S91" t="s" s="2">
         <v>77</v>
@@ -11934,10 +11909,10 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -11960,16 +11935,16 @@
         <v>77</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L92" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M92" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N92" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N92" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O92" s="2"/>
       <c r="P92" t="s" s="2">
@@ -12039,13 +12014,13 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B93" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D93" t="s" s="2">
         <v>77</v>
@@ -12070,14 +12045,14 @@
         <v>93</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="M93" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="P93" t="s" s="2">
         <v>77</v>
@@ -12146,10 +12121,10 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12249,10 +12224,10 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12260,7 +12235,7 @@
       </c>
       <c r="E95" s="2"/>
       <c r="F95" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G95" t="s" s="2">
         <v>79</v>
@@ -12352,13 +12327,13 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D96" t="s" s="2">
         <v>77</v>
@@ -12383,14 +12358,14 @@
         <v>93</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="P96" t="s" s="2">
         <v>77</v>
@@ -12459,10 +12434,10 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12562,10 +12537,10 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12667,10 +12642,10 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12710,7 +12685,7 @@
       </c>
       <c r="Q99" s="2"/>
       <c r="R99" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="S99" t="s" s="2">
         <v>77</v>
@@ -12772,10 +12747,10 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12801,10 +12776,10 @@
         <v>137</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="N100" s="2"/>
       <c r="O100" s="2"/>
@@ -12834,10 +12809,10 @@
         <v>138</v>
       </c>
       <c r="Y100" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="AA100" t="s" s="2">
         <v>77</v>
@@ -12875,13 +12850,13 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D101" t="s" s="2">
         <v>77</v>
@@ -12906,14 +12881,14 @@
         <v>93</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="N101" s="2"/>
       <c r="O101" t="s" s="2">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="P101" t="s" s="2">
         <v>77</v>
@@ -12982,10 +12957,10 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13085,10 +13060,10 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13188,13 +13163,13 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>77</v>
@@ -13219,10 +13194,10 @@
         <v>93</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13293,10 +13268,10 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C105" s="2"/>
       <c r="D105" t="s" s="2">
@@ -13396,10 +13371,10 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" t="s" s="2">
@@ -13501,10 +13476,10 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" t="s" s="2">
@@ -13544,7 +13519,7 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>77</v>
@@ -13606,10 +13581,10 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C108" s="2"/>
       <c r="D108" t="s" s="2">
@@ -13635,13 +13610,13 @@
         <v>87</v>
       </c>
       <c r="L108" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M108" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N108" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M108" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N108" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -13649,7 +13624,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13711,13 +13686,13 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>77</v>
@@ -13742,14 +13717,14 @@
         <v>93</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -13818,10 +13793,10 @@
     </row>
     <row r="110">
       <c r="A110" t="s" s="2">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C110" s="2"/>
       <c r="D110" t="s" s="2">
@@ -13921,10 +13896,10 @@
     </row>
     <row r="111">
       <c r="A111" t="s" s="2">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" t="s" s="2">
@@ -14026,10 +14001,10 @@
     </row>
     <row r="112">
       <c r="A112" t="s" s="2">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C112" s="2"/>
       <c r="D112" t="s" s="2">
@@ -14069,7 +14044,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>77</v>
@@ -14131,10 +14106,10 @@
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C113" s="2"/>
       <c r="D113" t="s" s="2">
@@ -14160,10 +14135,10 @@
         <v>137</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14194,7 +14169,7 @@
       </c>
       <c r="Y113" s="2"/>
       <c r="Z113" t="s" s="2">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>77</v>
@@ -14232,13 +14207,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>77</v>
@@ -14263,14 +14238,14 @@
         <v>93</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -14339,10 +14314,10 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C115" s="2"/>
       <c r="D115" t="s" s="2">
@@ -14442,10 +14417,10 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="C116" s="2"/>
       <c r="D116" t="s" s="2">
@@ -14547,10 +14522,10 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="C117" s="2"/>
       <c r="D117" t="s" s="2">
@@ -14590,7 +14565,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>77</v>
@@ -14652,10 +14627,10 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C118" s="2"/>
       <c r="D118" t="s" s="2">
@@ -14678,13 +14653,13 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -14755,10 +14730,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14798,7 +14773,7 @@
       </c>
       <c r="Q119" s="2"/>
       <c r="R119" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="S119" t="s" s="2">
         <v>77</v>
@@ -14860,10 +14835,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14886,13 +14861,13 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -14963,10 +14938,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15006,7 +14981,7 @@
       </c>
       <c r="Q121" s="2"/>
       <c r="R121" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="S121" t="s" s="2">
         <v>77</v>
@@ -15068,10 +15043,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15094,13 +15069,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15171,7 +15146,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>113</v>
@@ -15214,7 +15189,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>77</v>
@@ -15276,7 +15251,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>121</v>
@@ -15302,13 +15277,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15379,13 +15354,13 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D125" t="s" s="2">
         <v>77</v>
@@ -15410,14 +15385,14 @@
         <v>93</v>
       </c>
       <c r="L125" t="s" s="2">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="M125" t="s" s="2">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
@@ -15486,7 +15461,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>105</v>
@@ -15589,7 +15564,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>107</v>
@@ -15692,13 +15667,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15723,14 +15698,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15799,10 +15774,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15902,10 +15877,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -16005,13 +15980,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B131" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C131" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C131" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -16036,10 +16011,10 @@
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16110,10 +16085,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16213,10 +16188,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16318,10 +16293,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16361,7 +16336,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16423,10 +16398,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16452,13 +16427,13 @@
         <v>87</v>
       </c>
       <c r="L135" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M135" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N135" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M135" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N135" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -16466,7 +16441,7 @@
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>77</v>
@@ -16528,13 +16503,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16559,14 +16534,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16635,10 +16610,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16738,10 +16713,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16843,10 +16818,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16886,7 +16861,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16948,10 +16923,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16977,10 +16952,10 @@
         <v>137</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -17011,7 +16986,7 @@
       </c>
       <c r="Y140" s="2"/>
       <c r="Z140" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>77</v>
@@ -17049,13 +17024,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -17080,14 +17055,14 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -17156,10 +17131,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17259,10 +17234,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17364,10 +17339,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17407,7 +17382,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17469,10 +17444,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17495,13 +17470,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17572,10 +17547,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17615,7 +17590,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17677,10 +17652,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17703,13 +17678,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17780,13 +17755,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17811,14 +17786,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M148" t="s" s="2">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17887,10 +17862,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17990,10 +17965,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18093,13 +18068,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B151" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C151" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C151" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -18124,10 +18099,10 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -18198,10 +18173,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18301,10 +18276,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18406,10 +18381,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18449,7 +18424,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18511,10 +18486,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18540,13 +18515,13 @@
         <v>87</v>
       </c>
       <c r="L155" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M155" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N155" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M155" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N155" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -18554,7 +18529,7 @@
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S155" t="s" s="2">
         <v>77</v>
@@ -18616,13 +18591,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18647,14 +18622,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18723,10 +18698,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18826,10 +18801,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18931,10 +18906,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18974,7 +18949,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -19036,10 +19011,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19065,10 +19040,10 @@
         <v>137</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -19099,7 +19074,7 @@
       </c>
       <c r="Y160" s="2"/>
       <c r="Z160" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>77</v>
@@ -19137,13 +19112,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>77</v>
@@ -19168,14 +19143,14 @@
         <v>93</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>77</v>
@@ -19244,10 +19219,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19347,10 +19322,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19452,10 +19427,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19495,7 +19470,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>77</v>
@@ -19557,10 +19532,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19583,13 +19558,13 @@
         <v>77</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -19660,10 +19635,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19703,7 +19678,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19765,10 +19740,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19791,13 +19766,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19868,13 +19843,13 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C168" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D168" t="s" s="2">
         <v>77</v>
@@ -19899,14 +19874,14 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="M168" t="s" s="2">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19975,10 +19950,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20078,10 +20053,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20181,13 +20156,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B171" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C171" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C171" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>77</v>
@@ -20212,10 +20187,10 @@
         <v>93</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -20286,10 +20261,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20389,10 +20364,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20494,10 +20469,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20537,7 +20512,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>77</v>
@@ -20599,10 +20574,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20628,13 +20603,13 @@
         <v>87</v>
       </c>
       <c r="L175" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M175" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N175" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N175" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -20642,7 +20617,7 @@
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>77</v>
@@ -20704,13 +20679,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20735,14 +20710,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20811,10 +20786,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20914,10 +20889,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -21019,10 +20994,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21062,7 +21037,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -21124,10 +21099,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21153,10 +21128,10 @@
         <v>137</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -21187,7 +21162,7 @@
       </c>
       <c r="Y180" s="2"/>
       <c r="Z180" t="s" s="2">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>77</v>
@@ -21225,13 +21200,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -21256,14 +21231,14 @@
         <v>93</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21332,10 +21307,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21435,10 +21410,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21540,10 +21515,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21583,7 +21558,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21645,10 +21620,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21671,13 +21646,13 @@
         <v>77</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -21748,10 +21723,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21791,7 +21766,7 @@
       </c>
       <c r="Q186" s="2"/>
       <c r="R186" t="s" s="2">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="S186" t="s" s="2">
         <v>77</v>
@@ -21853,10 +21828,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21879,13 +21854,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21956,13 +21931,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21987,14 +21962,14 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="M188" t="s" s="2">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -22063,10 +22038,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22166,10 +22141,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22269,13 +22244,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B191" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C191" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C191" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>77</v>
@@ -22300,10 +22275,10 @@
         <v>93</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -22374,10 +22349,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22477,10 +22452,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22582,10 +22557,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22625,7 +22600,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>77</v>
@@ -22687,10 +22662,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22716,13 +22691,13 @@
         <v>87</v>
       </c>
       <c r="L195" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M195" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N195" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M195" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N195" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -22730,7 +22705,7 @@
       </c>
       <c r="Q195" s="2"/>
       <c r="R195" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S195" t="s" s="2">
         <v>77</v>
@@ -22792,13 +22767,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -22823,14 +22798,14 @@
         <v>93</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -22899,10 +22874,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -23002,10 +22977,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23107,10 +23082,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23150,7 +23125,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -23212,10 +23187,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23241,10 +23216,10 @@
         <v>137</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -23275,7 +23250,7 @@
       </c>
       <c r="Y200" s="2"/>
       <c r="Z200" t="s" s="2">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>77</v>
@@ -23313,13 +23288,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>77</v>
@@ -23344,14 +23319,14 @@
         <v>93</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>77</v>
@@ -23420,10 +23395,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23523,10 +23498,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23628,10 +23603,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23671,7 +23646,7 @@
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S204" t="s" s="2">
         <v>77</v>
@@ -23733,10 +23708,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23759,13 +23734,13 @@
         <v>77</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -23836,10 +23811,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23879,7 +23854,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -23941,10 +23916,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23967,13 +23942,13 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -24044,13 +24019,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -24075,14 +24050,14 @@
         <v>93</v>
       </c>
       <c r="L208" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M208" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24151,10 +24126,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24254,10 +24229,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24359,10 +24334,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24402,7 +24377,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24464,10 +24439,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24490,13 +24465,13 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L212" t="s" s="2">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="M212" t="s" s="2">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24567,13 +24542,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -24598,14 +24573,14 @@
         <v>93</v>
       </c>
       <c r="L213" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M213" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -24674,10 +24649,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24777,10 +24752,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24882,10 +24857,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24925,7 +24900,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24987,10 +24962,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -25013,13 +24988,13 @@
         <v>77</v>
       </c>
       <c r="K217" t="s" s="2">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="L217" t="s" s="2">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="M217" t="s" s="2">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -25090,13 +25065,13 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D218" t="s" s="2">
         <v>77</v>
@@ -25121,16 +25096,16 @@
         <v>93</v>
       </c>
       <c r="L218" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M218" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N218" t="s" s="2">
         <v>271</v>
       </c>
-      <c r="M218" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N218" t="s" s="2">
-        <v>273</v>
-      </c>
       <c r="O218" t="s" s="2">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25199,10 +25174,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25302,10 +25277,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25407,10 +25382,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25450,7 +25425,7 @@
       </c>
       <c r="Q221" s="2"/>
       <c r="R221" t="s" s="2">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="S221" t="s" s="2">
         <v>77</v>
@@ -25512,10 +25487,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25538,16 +25513,16 @@
         <v>77</v>
       </c>
       <c r="K222" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="L222" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="M222" t="s" s="2">
+        <v>270</v>
+      </c>
+      <c r="N222" t="s" s="2">
         <v>271</v>
-      </c>
-      <c r="M222" t="s" s="2">
-        <v>272</v>
-      </c>
-      <c r="N222" t="s" s="2">
-        <v>273</v>
       </c>
       <c r="O222" s="2"/>
       <c r="P222" t="s" s="2">
@@ -25617,13 +25592,13 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D223" t="s" s="2">
         <v>77</v>
@@ -25648,14 +25623,14 @@
         <v>93</v>
       </c>
       <c r="L223" t="s" s="2">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="M223" t="s" s="2">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>77</v>
@@ -25724,10 +25699,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -25827,10 +25802,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25932,10 +25907,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -25975,7 +25950,7 @@
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>77</v>
@@ -26037,10 +26012,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26063,13 +26038,13 @@
         <v>77</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -26140,7 +26115,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>113</v>
@@ -26183,7 +26158,7 @@
       </c>
       <c r="Q228" s="2"/>
       <c r="R228" t="s" s="2">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="S228" t="s" s="2">
         <v>77</v>
@@ -26245,7 +26220,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>121</v>
@@ -26271,13 +26246,13 @@
         <v>77</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -26348,13 +26323,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>77</v>
@@ -26379,14 +26354,14 @@
         <v>93</v>
       </c>
       <c r="L230" t="s" s="2">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="M230" t="s" s="2">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>77</v>
@@ -26455,7 +26430,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>105</v>
@@ -26558,7 +26533,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>107</v>
@@ -26661,13 +26636,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>77</v>
@@ -26692,14 +26667,14 @@
         <v>93</v>
       </c>
       <c r="L233" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M233" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>77</v>
@@ -26768,10 +26743,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -26871,10 +26846,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -26974,13 +26949,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D236" t="s" s="2">
         <v>77</v>
@@ -27005,14 +26980,14 @@
         <v>93</v>
       </c>
       <c r="L236" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M236" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>77</v>
@@ -27081,10 +27056,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27184,10 +27159,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27289,10 +27264,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27332,7 +27307,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27394,10 +27369,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27420,13 +27395,13 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="L240" t="s" s="2">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="M240" t="s" s="2">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -27453,13 +27428,13 @@
         <v>77</v>
       </c>
       <c r="X240" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="Y240" t="s" s="2">
-        <v>492</v>
+        <v>77</v>
       </c>
       <c r="Z240" t="s" s="2">
-        <v>493</v>
+        <v>77</v>
       </c>
       <c r="AA240" t="s" s="2">
         <v>77</v>
@@ -27497,10 +27472,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>494</v>
+        <v>489</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27540,7 +27515,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -27602,10 +27577,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>495</v>
+        <v>490</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27628,13 +27603,13 @@
         <v>77</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -27705,7 +27680,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>496</v>
+        <v>491</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>107</v>
@@ -27736,14 +27711,14 @@
         <v>93</v>
       </c>
       <c r="L243" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M243" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" t="s" s="2">
-        <v>499</v>
+        <v>494</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>77</v>
@@ -27812,10 +27787,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>500</v>
+        <v>495</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -27915,10 +27890,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>501</v>
+        <v>496</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -28020,10 +27995,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>502</v>
+        <v>497</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28125,10 +28100,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>503</v>
+        <v>498</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28154,10 +28129,10 @@
         <v>137</v>
       </c>
       <c r="L247" t="s" s="2">
-        <v>497</v>
+        <v>492</v>
       </c>
       <c r="M247" t="s" s="2">
-        <v>498</v>
+        <v>493</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -28184,13 +28159,13 @@
         <v>77</v>
       </c>
       <c r="X247" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="Y247" t="s" s="2">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="Z247" t="s" s="2">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>77</v>
@@ -28228,13 +28203,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>77</v>
@@ -28259,14 +28234,14 @@
         <v>93</v>
       </c>
       <c r="L248" t="s" s="2">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="M248" t="s" s="2">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>77</v>
@@ -28335,10 +28310,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28438,10 +28413,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28541,13 +28516,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>513</v>
+        <v>509</v>
       </c>
       <c r="B251" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C251" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C251" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D251" t="s" s="2">
         <v>77</v>
@@ -28572,10 +28547,10 @@
         <v>93</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -28646,10 +28621,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -28749,10 +28724,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -28854,10 +28829,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>516</v>
+        <v>512</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -28897,7 +28872,7 @@
       </c>
       <c r="Q254" s="2"/>
       <c r="R254" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S254" t="s" s="2">
         <v>77</v>
@@ -28959,10 +28934,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>517</v>
+        <v>513</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -28988,13 +28963,13 @@
         <v>87</v>
       </c>
       <c r="L255" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M255" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N255" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M255" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N255" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" t="s" s="2">
@@ -29002,7 +28977,7 @@
       </c>
       <c r="Q255" s="2"/>
       <c r="R255" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S255" t="s" s="2">
         <v>77</v>
@@ -29064,13 +29039,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>77</v>
@@ -29095,14 +29070,14 @@
         <v>93</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P256" t="s" s="2">
         <v>77</v>
@@ -29171,10 +29146,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>519</v>
+        <v>515</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29274,10 +29249,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>520</v>
+        <v>516</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -29379,10 +29354,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>521</v>
+        <v>517</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29422,7 +29397,7 @@
       </c>
       <c r="Q259" s="2"/>
       <c r="R259" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>77</v>
@@ -29484,10 +29459,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -29513,10 +29488,10 @@
         <v>137</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -29547,7 +29522,7 @@
       </c>
       <c r="Y260" s="2"/>
       <c r="Z260" t="s" s="2">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="AA260" t="s" s="2">
         <v>77</v>
@@ -29585,13 +29560,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D261" t="s" s="2">
         <v>77</v>
@@ -29616,14 +29591,14 @@
         <v>93</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P261" t="s" s="2">
         <v>77</v>
@@ -29692,10 +29667,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -29795,10 +29770,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -29900,10 +29875,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>527</v>
+        <v>523</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -29943,7 +29918,7 @@
       </c>
       <c r="Q264" s="2"/>
       <c r="R264" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S264" t="s" s="2">
         <v>77</v>
@@ -30005,10 +29980,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30031,13 +30006,13 @@
         <v>77</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -30108,10 +30083,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -30151,7 +30126,7 @@
       </c>
       <c r="Q266" s="2"/>
       <c r="R266" t="s" s="2">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="S266" t="s" s="2">
         <v>77</v>
@@ -30213,10 +30188,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -30239,13 +30214,13 @@
         <v>77</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
@@ -30316,13 +30291,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="D268" t="s" s="2">
         <v>77</v>
@@ -30347,14 +30322,14 @@
         <v>93</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" t="s" s="2">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="P268" t="s" s="2">
         <v>77</v>
@@ -30423,10 +30398,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>536</v>
+        <v>532</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -30526,10 +30501,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>537</v>
+        <v>533</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -30631,10 +30606,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>538</v>
+        <v>534</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -30674,7 +30649,7 @@
       </c>
       <c r="Q271" s="2"/>
       <c r="R271" t="s" s="2">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="S271" t="s" s="2">
         <v>77</v>
@@ -30736,10 +30711,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>539</v>
+        <v>535</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -30765,10 +30740,10 @@
         <v>137</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -30795,13 +30770,13 @@
         <v>77</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>540</v>
+        <v>536</v>
       </c>
       <c r="Z272" t="s" s="2">
-        <v>541</v>
+        <v>537</v>
       </c>
       <c r="AA272" t="s" s="2">
         <v>77</v>
@@ -30839,13 +30814,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>542</v>
+        <v>538</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>77</v>
@@ -30870,14 +30845,14 @@
         <v>93</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" t="s" s="2">
-        <v>546</v>
+        <v>542</v>
       </c>
       <c r="P273" t="s" s="2">
         <v>77</v>
@@ -30946,10 +30921,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>547</v>
+        <v>543</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -31049,10 +31024,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>548</v>
+        <v>544</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -31154,10 +31129,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>549</v>
+        <v>545</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -31197,7 +31172,7 @@
       </c>
       <c r="Q276" s="2"/>
       <c r="R276" t="s" s="2">
-        <v>543</v>
+        <v>539</v>
       </c>
       <c r="S276" t="s" s="2">
         <v>77</v>
@@ -31259,10 +31234,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>550</v>
+        <v>546</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -31288,10 +31263,10 @@
         <v>137</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>544</v>
+        <v>540</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>545</v>
+        <v>541</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -31318,13 +31293,13 @@
         <v>77</v>
       </c>
       <c r="X277" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="Y277" t="s" s="2">
-        <v>551</v>
+        <v>77</v>
       </c>
       <c r="Z277" t="s" s="2">
-        <v>552</v>
+        <v>77</v>
       </c>
       <c r="AA277" t="s" s="2">
         <v>77</v>
@@ -31362,7 +31337,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>113</v>
@@ -31405,7 +31380,7 @@
       </c>
       <c r="Q278" s="2"/>
       <c r="R278" t="s" s="2">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="S278" t="s" s="2">
         <v>77</v>
@@ -31467,7 +31442,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>121</v>
@@ -31493,13 +31468,13 @@
         <v>77</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -31570,13 +31545,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="D280" t="s" s="2">
         <v>77</v>
@@ -31601,14 +31576,14 @@
         <v>93</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" t="s" s="2">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="P280" t="s" s="2">
         <v>77</v>
@@ -31677,7 +31652,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>105</v>
@@ -31780,7 +31755,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>107</v>
@@ -31885,7 +31860,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>113</v>
@@ -31928,7 +31903,7 @@
       </c>
       <c r="Q283" s="2"/>
       <c r="R283" t="s" s="2">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="S283" t="s" s="2">
         <v>77</v>
@@ -31990,7 +31965,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>121</v>
@@ -32016,13 +31991,13 @@
         <v>77</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
@@ -32093,13 +32068,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="D285" t="s" s="2">
         <v>77</v>
@@ -32124,14 +32099,14 @@
         <v>93</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" t="s" s="2">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="P285" t="s" s="2">
         <v>77</v>
@@ -32200,7 +32175,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>105</v>
@@ -32303,7 +32278,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>107</v>
@@ -32408,7 +32383,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>113</v>
@@ -32451,7 +32426,7 @@
       </c>
       <c r="Q288" s="2"/>
       <c r="R288" t="s" s="2">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="S288" t="s" s="2">
         <v>77</v>
@@ -32513,7 +32488,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>121</v>
@@ -32539,13 +32514,13 @@
         <v>77</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -32616,13 +32591,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="D290" t="s" s="2">
         <v>77</v>
@@ -32647,14 +32622,14 @@
         <v>93</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" t="s" s="2">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="P290" t="s" s="2">
         <v>77</v>
@@ -32723,7 +32698,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>105</v>
@@ -32826,7 +32801,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>107</v>
@@ -32929,13 +32904,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="D293" t="s" s="2">
         <v>77</v>
@@ -32960,14 +32935,14 @@
         <v>93</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="N293" s="2"/>
       <c r="O293" t="s" s="2">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="P293" t="s" s="2">
         <v>77</v>
@@ -33036,10 +33011,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -33139,10 +33114,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33242,13 +33217,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B296" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="C296" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="C296" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="D296" t="s" s="2">
         <v>77</v>
@@ -33273,10 +33248,10 @@
         <v>93</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
@@ -33347,10 +33322,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -33450,10 +33425,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -33555,10 +33530,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -33598,7 +33573,7 @@
       </c>
       <c r="Q299" s="2"/>
       <c r="R299" t="s" s="2">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="S299" t="s" s="2">
         <v>77</v>
@@ -33660,10 +33635,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -33689,13 +33664,13 @@
         <v>87</v>
       </c>
       <c r="L300" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="M300" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="N300" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M300" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="N300" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
@@ -33703,7 +33678,7 @@
       </c>
       <c r="Q300" s="2"/>
       <c r="R300" t="s" s="2">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="S300" t="s" s="2">
         <v>77</v>
@@ -33765,13 +33740,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>77</v>
@@ -33796,14 +33771,14 @@
         <v>93</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="P301" t="s" s="2">
         <v>77</v>
@@ -33872,10 +33847,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -33975,10 +33950,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -34080,10 +34055,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34123,7 +34098,7 @@
       </c>
       <c r="Q304" s="2"/>
       <c r="R304" t="s" s="2">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="S304" t="s" s="2">
         <v>77</v>
@@ -34185,10 +34160,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34214,10 +34189,10 @@
         <v>137</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -34248,7 +34223,7 @@
       </c>
       <c r="Y305" s="2"/>
       <c r="Z305" t="s" s="2">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="AA305" t="s" s="2">
         <v>77</v>
@@ -34286,13 +34261,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D306" t="s" s="2">
         <v>77</v>
@@ -34317,14 +34292,14 @@
         <v>93</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N306" s="2"/>
       <c r="O306" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="P306" t="s" s="2">
         <v>77</v>
@@ -34393,10 +34368,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -34496,10 +34471,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -34601,10 +34576,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -34644,7 +34619,7 @@
       </c>
       <c r="Q309" s="2"/>
       <c r="R309" t="s" s="2">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="S309" t="s" s="2">
         <v>77</v>
@@ -34706,10 +34681,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -34732,13 +34707,13 @@
         <v>77</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
@@ -34809,10 +34784,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -34852,7 +34827,7 @@
       </c>
       <c r="Q311" s="2"/>
       <c r="R311" t="s" s="2">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="S311" t="s" s="2">
         <v>77</v>
@@ -34914,10 +34889,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -34940,13 +34915,13 @@
         <v>77</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
@@ -35017,13 +34992,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>77</v>
@@ -35048,14 +35023,14 @@
         <v>93</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="N313" s="2"/>
       <c r="O313" t="s" s="2">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="P313" t="s" s="2">
         <v>77</v>
@@ -35124,10 +35099,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -35227,10 +35202,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -35332,10 +35307,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -35375,7 +35350,7 @@
       </c>
       <c r="Q316" s="2"/>
       <c r="R316" t="s" s="2">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="S316" t="s" s="2">
         <v>77</v>
@@ -35437,10 +35412,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -35466,10 +35441,10 @@
         <v>137</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
@@ -35496,13 +35471,13 @@
         <v>77</v>
       </c>
       <c r="X317" t="s" s="2">
-        <v>491</v>
+        <v>77</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>615</v>
+        <v>77</v>
       </c>
       <c r="Z317" t="s" s="2">
-        <v>616</v>
+        <v>77</v>
       </c>
       <c r="AA317" t="s" s="2">
         <v>77</v>
@@ -35540,13 +35515,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>617</v>
+        <v>609</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="D318" t="s" s="2">
         <v>77</v>
@@ -35571,14 +35546,14 @@
         <v>93</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N318" s="2"/>
       <c r="O318" t="s" s="2">
-        <v>621</v>
+        <v>613</v>
       </c>
       <c r="P318" t="s" s="2">
         <v>77</v>
@@ -35647,10 +35622,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>622</v>
+        <v>614</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -35750,10 +35725,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>623</v>
+        <v>615</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -35855,10 +35830,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>624</v>
+        <v>616</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -35898,7 +35873,7 @@
       </c>
       <c r="Q321" s="2"/>
       <c r="R321" t="s" s="2">
-        <v>618</v>
+        <v>610</v>
       </c>
       <c r="S321" t="s" s="2">
         <v>77</v>
@@ -35960,10 +35935,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -35989,10 +35964,10 @@
         <v>137</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>619</v>
+        <v>611</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>620</v>
+        <v>612</v>
       </c>
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
@@ -36019,13 +35994,13 @@
         <v>77</v>
       </c>
       <c r="X322" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>626</v>
+        <v>618</v>
       </c>
       <c r="Z322" t="s" s="2">
-        <v>627</v>
+        <v>619</v>
       </c>
       <c r="AA322" t="s" s="2">
         <v>77</v>
@@ -36063,7 +36038,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>628</v>
+        <v>620</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>113</v>
@@ -36106,7 +36081,7 @@
       </c>
       <c r="Q323" s="2"/>
       <c r="R323" t="s" s="2">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="S323" t="s" s="2">
         <v>77</v>
@@ -36168,7 +36143,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>629</v>
+        <v>621</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>121</v>
@@ -36194,13 +36169,13 @@
         <v>77</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
@@ -36271,13 +36246,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>630</v>
+        <v>622</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="D325" t="s" s="2">
         <v>77</v>
@@ -36302,14 +36277,14 @@
         <v>93</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>632</v>
+        <v>624</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>633</v>
+        <v>625</v>
       </c>
       <c r="N325" s="2"/>
       <c r="O325" t="s" s="2">
-        <v>634</v>
+        <v>626</v>
       </c>
       <c r="P325" t="s" s="2">
         <v>77</v>
@@ -36378,7 +36353,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>635</v>
+        <v>627</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>105</v>
@@ -36481,7 +36456,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>636</v>
+        <v>628</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>107</v>
@@ -36584,13 +36559,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>637</v>
+        <v>629</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="D328" t="s" s="2">
         <v>77</v>
@@ -36615,14 +36590,14 @@
         <v>93</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
-        <v>641</v>
+        <v>633</v>
       </c>
       <c r="P328" t="s" s="2">
         <v>77</v>
@@ -36691,10 +36666,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>642</v>
+        <v>634</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -36794,10 +36769,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>643</v>
+        <v>635</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -36899,10 +36874,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>644</v>
+        <v>636</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -36942,7 +36917,7 @@
       </c>
       <c r="Q331" s="2"/>
       <c r="R331" t="s" s="2">
-        <v>638</v>
+        <v>630</v>
       </c>
       <c r="S331" t="s" s="2">
         <v>77</v>
@@ -37004,10 +36979,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>645</v>
+        <v>637</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -37030,13 +37005,13 @@
         <v>77</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>646</v>
+        <v>638</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>639</v>
+        <v>631</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>640</v>
+        <v>632</v>
       </c>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
@@ -37107,13 +37082,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>647</v>
+        <v>639</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="D333" t="s" s="2">
         <v>77</v>
@@ -37138,14 +37113,14 @@
         <v>93</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="N333" s="2"/>
       <c r="O333" t="s" s="2">
-        <v>651</v>
+        <v>643</v>
       </c>
       <c r="P333" t="s" s="2">
         <v>77</v>
@@ -37214,10 +37189,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>652</v>
+        <v>644</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -37317,10 +37292,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>653</v>
+        <v>645</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -37422,10 +37397,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>654</v>
+        <v>646</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -37465,7 +37440,7 @@
       </c>
       <c r="Q336" s="2"/>
       <c r="R336" t="s" s="2">
-        <v>648</v>
+        <v>640</v>
       </c>
       <c r="S336" t="s" s="2">
         <v>77</v>
@@ -37527,10 +37502,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>655</v>
+        <v>647</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -37556,10 +37531,10 @@
         <v>137</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>649</v>
+        <v>641</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>650</v>
+        <v>642</v>
       </c>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
@@ -37586,13 +37561,13 @@
         <v>77</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>656</v>
+        <v>648</v>
       </c>
       <c r="Z337" t="s" s="2">
-        <v>657</v>
+        <v>649</v>
       </c>
       <c r="AA337" t="s" s="2">
         <v>77</v>
@@ -37630,7 +37605,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>658</v>
+        <v>650</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>113</v>
@@ -37673,7 +37648,7 @@
       </c>
       <c r="Q338" s="2"/>
       <c r="R338" t="s" s="2">
-        <v>631</v>
+        <v>623</v>
       </c>
       <c r="S338" t="s" s="2">
         <v>77</v>
@@ -37735,7 +37710,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>659</v>
+        <v>651</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>121</v>
@@ -37761,13 +37736,13 @@
         <v>77</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
@@ -37969,13 +37944,13 @@
         <v>77</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>

--- a/StructureDefinition-ext-R5-ClinicalUseDefinition.xlsx
+++ b/StructureDefinition-ext-R5-ClinicalUseDefinition.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11204" uniqueCount="652">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11213" uniqueCount="649">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -126,7 +126,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -408,7 +408,7 @@
     <t>Overall defining type of this clinical use definition.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-use-definition-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-use-definition-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -455,7 +455,7 @@
     <t>A categorisation for a clinical use information item.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-use-definition-category-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-clinical-use-definition-category-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:status</t>
@@ -486,6 +486,12 @@
     <t>Extension.extension:status.value[x]</t>
   </si>
   <si>
+    <t>The lifecycle status of an artifact.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.0.1</t>
+  </si>
+  <si>
     <t>Extension.extension:contraindication</t>
   </si>
   <si>
@@ -519,8 +525,7 @@
     <t>The situation that is being documented as contraindicating against this item.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.contraindication.diseaseSymptomProcedure` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication` requires a cross-version extension.
-Element `ClinicalUseDefinition.contraindication.diseaseSymptomProcedure` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.contraindication.diseaseSymptomProcedure` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.id</t>
@@ -598,7 +603,7 @@
     <t>A reference to a concept - e.g. the information is identified by its general class to the degree of precision found in the terminology.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.concept` has is mapped to FHIR R4 element `CodeableConcept`, but has no comparisons.</t>
+    <t>Element `CodeableReference.concept` is mapped to FHIR R4 element `CodeableConcept` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:concept.id</t>
@@ -613,9 +618,6 @@
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-disease-symptom-procedure-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:reference</t>
   </si>
   <si>
@@ -628,7 +630,7 @@
     <t>A reference to a resource the provides exact details about the information being referenced.</t>
   </si>
   <si>
-    <t>Element `CodeableReference.reference` has is mapped to FHIR R4 element `Reference`, but has no comparisons.</t>
+    <t>Element `CodeableReference.reference` is mapped to FHIR R4 element `Reference` as `Equivalent`, concept domain: `Equivalent`, value domain: `Equivalent`.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:reference.id</t>
@@ -643,7 +645,7 @@
     <t>Extension.extension:contraindication.extension:diseaseSymptomProcedure.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|ObservationDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|0.0.1-snapshot-3|ObservationDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -675,8 +677,7 @@
     <t>The status of the disease or symptom for the contraindication, for example "chronic" or "metastatic".</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.contraindication.diseaseStatus` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication` requires a cross-version extension.
-Element `ClinicalUseDefinition.contraindication.diseaseStatus` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.contraindication.diseaseStatus` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:diseaseStatus.id</t>
@@ -715,9 +716,6 @@
     <t>Extension.extension:contraindication.extension:diseaseStatus.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-disease-status-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:contraindication.extension:diseaseStatus.extension:reference</t>
   </si>
   <si>
@@ -751,8 +749,7 @@
     <t>A comorbidity (concurrent condition) or coinfection.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.contraindication.comorbidity` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication` requires a cross-version extension.
-Element `ClinicalUseDefinition.contraindication.comorbidity` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.contraindication.comorbidity` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:comorbidity.id</t>
@@ -824,8 +821,7 @@
     <t>The indication which this is a contraidication for.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.contraindication.indication` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.contraindication.indication` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.contraindication.indication` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `ClinicalUseDefinition.contraindication.indication` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
@@ -841,7 +837,7 @@
     <t>Extension.extension:contraindication.extension:indication.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|Basic)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-ClinicalUseDefinition|0.0.1-snapshot-3|Basic|4.0.1)
 </t>
   </si>
   <si>
@@ -860,8 +856,7 @@
     <t>The expression may be inlined or may be a reference to a named expression within a logic library referenced by the library element.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.contraindication.applicability` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication` requires a cross-version extension.
-Element `ClinicalUseDefinition.contraindication.applicability` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.contraindication.applicability` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:applicability.id</t>
@@ -892,8 +887,7 @@
     <t>Information about the use of the medicinal product in relation to other therapies described as part of the contraindication.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.contraindication.otherTherapy` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication` requires a cross-version extension.
-Element `ClinicalUseDefinition.contraindication.otherTherapy` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.contraindication.otherTherapy` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:otherTherapy.id</t>
@@ -917,8 +911,7 @@
     <t>The type of relationship between the medicinal product indication or contraindication and another therapy.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.contraindication.otherTherapy.relationshipType` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication.otherTherapy` requires a cross-version extension.
-Element `ClinicalUseDefinition.contraindication.otherTherapy.relationshipType` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.contraindication.otherTherapy.relationshipType` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:relationshipType.id</t>
@@ -936,7 +929,7 @@
     <t>Classification of relationship between a therapy and a contraindication or an indication.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-therapy-relationship-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-therapy-relationship-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment</t>
@@ -951,8 +944,7 @@
     <t>Reference to a specific medication (active substance, medicinal product or class of products, biological, food etc.) as part of an indication or contraindication.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.contraindication.otherTherapy.treatment` is part of an existing definition because parent element `ClinicalUseDefinition.contraindication.otherTherapy` requires a cross-version extension.
-Element `ClinicalUseDefinition.contraindication.otherTherapy.treatment` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.contraindication.otherTherapy.treatment` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment.id</t>
@@ -1003,9 +995,6 @@
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-therapy-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment.extension:reference</t>
   </si>
   <si>
@@ -1021,7 +1010,7 @@
     <t>Extension.extension:contraindication.extension:otherTherapy.extension:treatment.extension:reference.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|SubstanceSpecification|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|ActivityDefinition)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-SubstanceDefinition-for-SubstanceSpecification|0.0.1-snapshot-3|SubstanceSpecification|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ActivityDefinition|0.0.1-snapshot-3|ActivityDefinition|4.0.1)
 </t>
   </si>
   <si>
@@ -1070,8 +1059,7 @@
     <t>The situation that is being documented as an indicaton for this item.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.indication.diseaseSymptomProcedure` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
-Element `ClinicalUseDefinition.indication.diseaseSymptomProcedure` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.indication.diseaseSymptomProcedure` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:diseaseSymptomProcedure.id</t>
@@ -1140,8 +1128,7 @@
     <t>The status of the disease or symptom for the indication, for example "chronic" or "metastatic".</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.indication.diseaseStatus` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
-Element `ClinicalUseDefinition.indication.diseaseStatus` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.indication.diseaseStatus` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:diseaseStatus.id</t>
@@ -1210,8 +1197,7 @@
     <t>A comorbidity (concurrent condition) or coinfection as part of the indication.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.indication.comorbidity` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
-Element `ClinicalUseDefinition.indication.comorbidity` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.indication.comorbidity` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:comorbidity.id</t>
@@ -1283,8 +1269,7 @@
     <t>The intended effect, aim or strategy to be achieved.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.indication.intendedEffect` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
-Element `ClinicalUseDefinition.indication.intendedEffect` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.indication.intendedEffect` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:intendedEffect.id</t>
@@ -1323,7 +1308,7 @@
     <t>Extension.extension:indication.extension:intendedEffect.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-product-intended-use-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-product-intended-use-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:intendedEffect.extension:reference</t>
@@ -1359,8 +1344,7 @@
     <t>Timing or duration information, that may be associated with use with the indicated condition e.g. Adult patients suffering from myocardial infarction (from a few days until less than 35 days), ischaemic stroke (from 7 days until less than 6 months).</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.indication.duration[x]` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
-Element `ClinicalUseDefinition.indication.duration[x]` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.indication.duration[x]` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:duration.id</t>
@@ -1391,8 +1375,7 @@
     <t>An unwanted side effect or negative outcome that may happen if you use the drug (or other subject of this resource) for this indication.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.indication.undesirableEffect` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
-Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.indication.undesirableEffect` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
+    <t>Note that there is an externally-defined extension that has been flagged as the representation of FHIR R5 element `ClinicalUseDefinition.indication.undesirableEffect` with an unmapped Reference type: `http://hl7.org/fhir/StructureDefinition/alternate-reference`.
 Element `ClinicalUseDefinition.indication.undesirableEffect` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
@@ -1411,8 +1394,7 @@
     <t>Extension.extension:indication.extension:applicability</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.indication.applicability` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
-Element `ClinicalUseDefinition.indication.applicability` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.indication.applicability` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:applicability.id</t>
@@ -1436,8 +1418,7 @@
     <t>Information about the use of the medicinal product in relation to other therapies described as part of the indication.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.indication.otherTherapy` is part of an existing definition because parent element `ClinicalUseDefinition.indication` requires a cross-version extension.
-Element `ClinicalUseDefinition.indication.otherTherapy` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.indication.otherTherapy` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:indication.extension:otherTherapy.id</t>
@@ -1494,8 +1475,7 @@
     <t>The specific medication, product, food, substance etc. or laboratory test that interacts.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.interaction.interactant` is part of an existing definition because parent element `ClinicalUseDefinition.interaction` requires a cross-version extension.
-Element `ClinicalUseDefinition.interaction.interactant` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.interaction.interactant` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:interactant.id</t>
@@ -1510,8 +1490,7 @@
     <t>item</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.interaction.interactant.item[x]` is part of an existing definition because parent element `ClinicalUseDefinition.interaction.interactant` requires a cross-version extension.
-Element `ClinicalUseDefinition.interaction.interactant.item[x]` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.interaction.interactant.item[x]` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:interactant.extension:item.id</t>
@@ -1526,7 +1505,7 @@
     <t>Extension.extension:interaction.extension:interactant.extension:item.value[x]</t>
   </si>
   <si>
-    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|MedicinalProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|Medication|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|Substance|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|Basic|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|BiologicallyDerivedProduct|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|ObservationDefinition)
+    <t>Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-MedicinalProductDefinition-for-MedicinalProduct|0.0.1-snapshot-3|MedicinalProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Medication|0.0.1-snapshot-3|Medication|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-Substance|0.0.1-snapshot-3|Substance|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-NutritionProduct|0.0.1-snapshot-3|Basic|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-BiologicallyDerivedProduct|0.0.1-snapshot-3|BiologicallyDerivedProduct|4.0.1|http://hl7.org/fhir/5.0/StructureDefinition/profile-ObservationDefinition|0.0.1-snapshot-3|ObservationDefinition|4.0.1)
 CodeableConcept</t>
   </si>
   <si>
@@ -1545,8 +1524,7 @@
     <t>The type of the interaction e.g. drug-drug interaction, drug-food interaction, drug-lab test interaction.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.interaction.type` is part of an existing definition because parent element `ClinicalUseDefinition.interaction` requires a cross-version extension.
-Element `ClinicalUseDefinition.interaction.type` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.interaction.type` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:type.id</t>
@@ -1567,7 +1545,7 @@
     <t>A categorisation for an interaction between two substances.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:effect</t>
@@ -1582,8 +1560,7 @@
     <t>The effect of the interaction, for example "reduced gastric absorption of primary medication".</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.interaction.effect` is part of an existing definition because parent element `ClinicalUseDefinition.interaction` requires a cross-version extension.
-Element `ClinicalUseDefinition.interaction.effect` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.interaction.effect` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:effect.id</t>
@@ -1622,9 +1599,6 @@
     <t>Extension.extension:interaction.extension:effect.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-effect-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:interaction.extension:effect.extension:reference</t>
   </si>
   <si>
@@ -1658,8 +1632,7 @@
     <t>The incidence of the interaction, e.g. theoretical, observed.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.interaction.incidence` is part of an existing definition because parent element `ClinicalUseDefinition.interaction` requires a cross-version extension.
-Element `ClinicalUseDefinition.interaction.incidence` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.interaction.incidence` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:incidence.id</t>
@@ -1677,7 +1650,7 @@
     <t>A categorisation for incidence of occurence of an interaction.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-incidence-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-interaction-incidence-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:management</t>
@@ -1692,8 +1665,7 @@
     <t>Actions for managing the interaction.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.interaction.management` is part of an existing definition because parent element `ClinicalUseDefinition.interaction` requires a cross-version extension.
-Element `ClinicalUseDefinition.interaction.management` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.interaction.management` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:interaction.extension:management.id</t>
@@ -1742,7 +1714,7 @@
     <t>Extension.extension:population.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|Group)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/5.0/StructureDefinition/profile-Group|0.0.1-snapshot-3|Group|4.0.1)
 </t>
   </si>
   <si>
@@ -1774,7 +1746,7 @@
     <t>Extension.extension:library.value[x]</t>
   </si>
   <si>
-    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Library|Library)
+    <t xml:space="preserve">canonical(http://hl7.org/fhir/5.0/StructureDefinition/profile-Library|0.0.1-snapshot-3|Library|4.0.1)
 </t>
   </si>
   <si>
@@ -1808,8 +1780,7 @@
     <t>The situation in which the undesirable effect may manifest.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.undesirableEffect.symptomConditionEffect` is part of an existing definition because parent element `ClinicalUseDefinition.undesirableEffect` requires a cross-version extension.
-Element `ClinicalUseDefinition.undesirableEffect.symptomConditionEffect` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.undesirableEffect.symptomConditionEffect` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:undesirableEffect.extension:symptomConditionEffect.id</t>
@@ -1848,9 +1819,6 @@
     <t>Extension.extension:undesirableEffect.extension:symptomConditionEffect.extension:concept.value[x]</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-undesirable-effect-symptom-for-R4</t>
-  </si>
-  <si>
     <t>Extension.extension:undesirableEffect.extension:symptomConditionEffect.extension:reference</t>
   </si>
   <si>
@@ -1884,8 +1852,7 @@
     <t>High level classification of the effect.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.undesirableEffect.classification` is part of an existing definition because parent element `ClinicalUseDefinition.undesirableEffect` requires a cross-version extension.
-Element `ClinicalUseDefinition.undesirableEffect.classification` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.undesirableEffect.classification` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:undesirableEffect.extension:classification.id</t>
@@ -1912,8 +1879,7 @@
     <t>How often the effect is seen.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.undesirableEffect.frequencyOfOccurrence` is part of an existing definition because parent element `ClinicalUseDefinition.undesirableEffect` requires a cross-version extension.
-Element `ClinicalUseDefinition.undesirableEffect.frequencyOfOccurrence` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.undesirableEffect.frequencyOfOccurrence` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:undesirableEffect.extension:frequencyOfOccurrence.id</t>
@@ -1931,7 +1897,7 @@
     <t>A categorisation for a frequency of occurence of an undesirable effect.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-undesirable-effect-frequency-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-undesirable-effect-frequency-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:undesirableEffect.url</t>
@@ -1973,8 +1939,7 @@
     <t>A textual definition of this warning, with formatting.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.warning.description` is part of an existing definition because parent element `ClinicalUseDefinition.warning` requires a cross-version extension.
-Element `ClinicalUseDefinition.warning.description` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.warning.description` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:warning.extension:description.id</t>
@@ -2005,8 +1970,7 @@
     <t>A coded or unformatted textual definition of this warning.</t>
   </si>
   <si>
-    <t>Element `ClinicalUseDefinition.warning.code` is part of an existing definition because parent element `ClinicalUseDefinition.warning` requires a cross-version extension.
-Element `ClinicalUseDefinition.warning.code` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
+    <t>Element `ClinicalUseDefinition.warning.code` is not mapped to FHIR R4, since FHIR R5 `ClinicalUseDefinition` is not mapped.</t>
   </si>
   <si>
     <t>Extension.extension:warning.extension:code.id</t>
@@ -2024,7 +1988,7 @@
     <t>Classification of warning type.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-warning-type-for-R4</t>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-warning-type-for-R4|0.0.1-snapshot-3</t>
   </si>
   <si>
     <t>Extension.extension:warning.url</t>
@@ -2381,7 +2345,7 @@
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="71.05859375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="64.11328125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="78.52734375" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -4343,13 +4307,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>138</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>150</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>151</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -4387,13 +4351,13 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -4418,14 +4382,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -4494,7 +4458,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>105</v>
@@ -4597,7 +4561,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>107</v>
@@ -4700,13 +4664,13 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C23" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D23" t="s" s="2">
         <v>77</v>
@@ -4731,14 +4695,14 @@
         <v>93</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>77</v>
@@ -4807,10 +4771,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4910,10 +4874,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -5013,13 +4977,13 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C26" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D26" t="s" s="2">
         <v>77</v>
@@ -5044,10 +5008,10 @@
         <v>93</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -5118,10 +5082,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -5221,10 +5185,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5326,10 +5290,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5369,7 +5333,7 @@
       </c>
       <c r="Q29" s="2"/>
       <c r="R29" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S29" t="s" s="2">
         <v>77</v>
@@ -5431,10 +5395,10 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5460,13 +5424,13 @@
         <v>87</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5474,7 +5438,7 @@
       </c>
       <c r="Q30" s="2"/>
       <c r="R30" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S30" t="s" s="2">
         <v>77</v>
@@ -5536,13 +5500,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D31" t="s" s="2">
         <v>77</v>
@@ -5567,14 +5531,14 @@
         <v>93</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P31" t="s" s="2">
         <v>77</v>
@@ -5643,10 +5607,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5746,10 +5710,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5851,10 +5815,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5894,7 +5858,7 @@
       </c>
       <c r="Q34" s="2"/>
       <c r="R34" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S34" t="s" s="2">
         <v>77</v>
@@ -5956,10 +5920,10 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
@@ -5985,10 +5949,10 @@
         <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" s="2"/>
@@ -6015,11 +5979,13 @@
         <v>77</v>
       </c>
       <c r="X35" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y35" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z35" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AA35" t="s" s="2">
         <v>77</v>
@@ -6057,13 +6023,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D36" t="s" s="2">
         <v>77</v>
@@ -6088,14 +6054,14 @@
         <v>93</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P36" t="s" s="2">
         <v>77</v>
@@ -6164,10 +6130,10 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6267,10 +6233,10 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6372,10 +6338,10 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6415,7 +6381,7 @@
       </c>
       <c r="Q39" s="2"/>
       <c r="R39" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>77</v>
@@ -6477,10 +6443,10 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6503,13 +6469,13 @@
         <v>77</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6580,10 +6546,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6623,7 +6589,7 @@
       </c>
       <c r="Q41" s="2"/>
       <c r="R41" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S41" t="s" s="2">
         <v>77</v>
@@ -6685,10 +6651,10 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6711,13 +6677,13 @@
         <v>77</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" s="2"/>
@@ -6788,13 +6754,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D43" t="s" s="2">
         <v>77</v>
@@ -6819,14 +6785,14 @@
         <v>93</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="P43" t="s" s="2">
         <v>77</v>
@@ -6895,10 +6861,10 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6998,10 +6964,10 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7101,13 +7067,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C46" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D46" t="s" s="2">
         <v>77</v>
@@ -7132,10 +7098,10 @@
         <v>93</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7206,10 +7172,10 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7309,10 +7275,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7414,10 +7380,10 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7457,7 +7423,7 @@
       </c>
       <c r="Q49" s="2"/>
       <c r="R49" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S49" t="s" s="2">
         <v>77</v>
@@ -7519,10 +7485,10 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7548,13 +7514,13 @@
         <v>87</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7562,7 +7528,7 @@
       </c>
       <c r="Q50" s="2"/>
       <c r="R50" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S50" t="s" s="2">
         <v>77</v>
@@ -7624,13 +7590,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D51" t="s" s="2">
         <v>77</v>
@@ -7655,14 +7621,14 @@
         <v>93</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>77</v>
@@ -7731,10 +7697,10 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7834,10 +7800,10 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
@@ -7939,10 +7905,10 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7982,7 +7948,7 @@
       </c>
       <c r="Q54" s="2"/>
       <c r="R54" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S54" t="s" s="2">
         <v>77</v>
@@ -8044,10 +8010,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8073,10 +8039,10 @@
         <v>137</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8103,11 +8069,13 @@
         <v>77</v>
       </c>
       <c r="X55" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y55" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y55" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z55" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AA55" t="s" s="2">
         <v>77</v>
@@ -8148,10 +8116,10 @@
         <v>226</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C56" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D56" t="s" s="2">
         <v>77</v>
@@ -8176,14 +8144,14 @@
         <v>93</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P56" t="s" s="2">
         <v>77</v>
@@ -8255,7 +8223,7 @@
         <v>227</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8358,7 +8326,7 @@
         <v>228</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8463,7 +8431,7 @@
         <v>229</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8503,7 +8471,7 @@
       </c>
       <c r="Q59" s="2"/>
       <c r="R59" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>77</v>
@@ -8568,7 +8536,7 @@
         <v>230</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8591,13 +8559,13 @@
         <v>77</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8671,7 +8639,7 @@
         <v>231</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8711,7 +8679,7 @@
       </c>
       <c r="Q61" s="2"/>
       <c r="R61" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S61" t="s" s="2">
         <v>77</v>
@@ -8776,7 +8744,7 @@
         <v>232</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8799,13 +8767,13 @@
         <v>77</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N62" s="2"/>
       <c r="O62" s="2"/>
@@ -8986,7 +8954,7 @@
         <v>238</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9089,7 +9057,7 @@
         <v>239</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9192,10 +9160,10 @@
         <v>240</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D66" t="s" s="2">
         <v>77</v>
@@ -9220,10 +9188,10 @@
         <v>93</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" s="2"/>
@@ -9297,7 +9265,7 @@
         <v>241</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9400,7 +9368,7 @@
         <v>242</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9505,7 +9473,7 @@
         <v>243</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9545,7 +9513,7 @@
       </c>
       <c r="Q69" s="2"/>
       <c r="R69" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S69" t="s" s="2">
         <v>77</v>
@@ -9610,7 +9578,7 @@
         <v>244</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9636,13 +9604,13 @@
         <v>87</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9650,7 +9618,7 @@
       </c>
       <c r="Q70" s="2"/>
       <c r="R70" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S70" t="s" s="2">
         <v>77</v>
@@ -9715,10 +9683,10 @@
         <v>245</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D71" t="s" s="2">
         <v>77</v>
@@ -9743,14 +9711,14 @@
         <v>93</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>77</v>
@@ -9822,7 +9790,7 @@
         <v>246</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -9925,7 +9893,7 @@
         <v>247</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10030,7 +9998,7 @@
         <v>248</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10070,7 +10038,7 @@
       </c>
       <c r="Q74" s="2"/>
       <c r="R74" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S74" t="s" s="2">
         <v>77</v>
@@ -10135,7 +10103,7 @@
         <v>249</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10161,10 +10129,10 @@
         <v>137</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10191,11 +10159,13 @@
         <v>77</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y75" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y75" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z75" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>77</v>
@@ -10236,10 +10206,10 @@
         <v>250</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D76" t="s" s="2">
         <v>77</v>
@@ -10264,14 +10234,14 @@
         <v>93</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P76" t="s" s="2">
         <v>77</v>
@@ -10343,7 +10313,7 @@
         <v>251</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10446,7 +10416,7 @@
         <v>252</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10551,7 +10521,7 @@
         <v>253</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10591,7 +10561,7 @@
       </c>
       <c r="Q79" s="2"/>
       <c r="R79" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>77</v>
@@ -10656,7 +10626,7 @@
         <v>254</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10679,13 +10649,13 @@
         <v>77</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10759,7 +10729,7 @@
         <v>255</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -10864,7 +10834,7 @@
         <v>256</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -10887,13 +10857,13 @@
         <v>77</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N82" s="2"/>
       <c r="O82" s="2"/>
@@ -11074,7 +11044,7 @@
         <v>262</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11177,7 +11147,7 @@
         <v>263</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11282,7 +11252,7 @@
         <v>264</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" t="s" s="2">
@@ -11387,7 +11357,7 @@
         <v>265</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" t="s" s="2">
@@ -11599,7 +11569,7 @@
         <v>273</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" t="s" s="2">
@@ -11702,7 +11672,7 @@
         <v>274</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" t="s" s="2">
@@ -11807,7 +11777,7 @@
         <v>275</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" t="s" s="2">
@@ -11912,7 +11882,7 @@
         <v>276</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" t="s" s="2">
@@ -12124,7 +12094,7 @@
         <v>283</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" t="s" s="2">
@@ -12227,7 +12197,7 @@
         <v>284</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C95" s="2"/>
       <c r="D95" t="s" s="2">
@@ -12330,7 +12300,7 @@
         <v>286</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C96" t="s" s="2">
         <v>287</v>
@@ -12437,7 +12407,7 @@
         <v>291</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C97" s="2"/>
       <c r="D97" t="s" s="2">
@@ -12540,7 +12510,7 @@
         <v>292</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" t="s" s="2">
@@ -12645,7 +12615,7 @@
         <v>293</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" t="s" s="2">
@@ -12750,7 +12720,7 @@
         <v>294</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" t="s" s="2">
@@ -12853,7 +12823,7 @@
         <v>297</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C101" t="s" s="2">
         <v>298</v>
@@ -12960,7 +12930,7 @@
         <v>302</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" t="s" s="2">
@@ -13063,7 +13033,7 @@
         <v>303</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C103" s="2"/>
       <c r="D103" t="s" s="2">
@@ -13166,10 +13136,10 @@
         <v>304</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D104" t="s" s="2">
         <v>77</v>
@@ -13194,10 +13164,10 @@
         <v>93</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N104" s="2"/>
       <c r="O104" s="2"/>
@@ -13519,7 +13489,7 @@
       </c>
       <c r="Q107" s="2"/>
       <c r="R107" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S107" t="s" s="2">
         <v>77</v>
@@ -13610,13 +13580,13 @@
         <v>87</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M108" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N108" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O108" s="2"/>
       <c r="P108" t="s" s="2">
@@ -13624,7 +13594,7 @@
       </c>
       <c r="Q108" s="2"/>
       <c r="R108" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S108" t="s" s="2">
         <v>77</v>
@@ -13689,10 +13659,10 @@
         <v>313</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D109" t="s" s="2">
         <v>77</v>
@@ -13717,14 +13687,14 @@
         <v>93</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M109" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P109" t="s" s="2">
         <v>77</v>
@@ -14044,7 +14014,7 @@
       </c>
       <c r="Q112" s="2"/>
       <c r="R112" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S112" t="s" s="2">
         <v>77</v>
@@ -14135,10 +14105,10 @@
         <v>137</v>
       </c>
       <c r="L113" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N113" s="2"/>
       <c r="O113" s="2"/>
@@ -14165,11 +14135,13 @@
         <v>77</v>
       </c>
       <c r="X113" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y113" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y113" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z113" t="s" s="2">
-        <v>318</v>
+        <v>77</v>
       </c>
       <c r="AA113" t="s" s="2">
         <v>77</v>
@@ -14207,13 +14179,13 @@
     </row>
     <row r="114">
       <c r="A114" t="s" s="2">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D114" t="s" s="2">
         <v>77</v>
@@ -14238,14 +14210,14 @@
         <v>93</v>
       </c>
       <c r="L114" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N114" s="2"/>
       <c r="O114" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P114" t="s" s="2">
         <v>77</v>
@@ -14314,7 +14286,7 @@
     </row>
     <row r="115">
       <c r="A115" t="s" s="2">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B115" t="s" s="2">
         <v>306</v>
@@ -14417,7 +14389,7 @@
     </row>
     <row r="116">
       <c r="A116" t="s" s="2">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B116" t="s" s="2">
         <v>308</v>
@@ -14522,7 +14494,7 @@
     </row>
     <row r="117">
       <c r="A117" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B117" t="s" s="2">
         <v>310</v>
@@ -14565,7 +14537,7 @@
       </c>
       <c r="Q117" s="2"/>
       <c r="R117" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S117" t="s" s="2">
         <v>77</v>
@@ -14627,7 +14599,7 @@
     </row>
     <row r="118">
       <c r="A118" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B118" t="s" s="2">
         <v>312</v>
@@ -14653,13 +14625,13 @@
         <v>77</v>
       </c>
       <c r="K118" t="s" s="2">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="L118" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M118" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N118" s="2"/>
       <c r="O118" s="2"/>
@@ -14730,10 +14702,10 @@
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C119" s="2"/>
       <c r="D119" t="s" s="2">
@@ -14835,10 +14807,10 @@
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C120" s="2"/>
       <c r="D120" t="s" s="2">
@@ -14861,13 +14833,13 @@
         <v>77</v>
       </c>
       <c r="K120" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L120" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N120" s="2"/>
       <c r="O120" s="2"/>
@@ -14938,10 +14910,10 @@
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C121" s="2"/>
       <c r="D121" t="s" s="2">
@@ -15043,10 +15015,10 @@
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C122" s="2"/>
       <c r="D122" t="s" s="2">
@@ -15069,13 +15041,13 @@
         <v>77</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L122" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N122" s="2"/>
       <c r="O122" s="2"/>
@@ -15146,7 +15118,7 @@
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B123" t="s" s="2">
         <v>113</v>
@@ -15189,7 +15161,7 @@
       </c>
       <c r="Q123" s="2"/>
       <c r="R123" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="S123" t="s" s="2">
         <v>77</v>
@@ -15251,7 +15223,7 @@
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>121</v>
@@ -15277,13 +15249,13 @@
         <v>77</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L124" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M124" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N124" s="2"/>
       <c r="O124" s="2"/>
@@ -15354,7 +15326,7 @@
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>92</v>
@@ -15385,14 +15357,14 @@
         <v>93</v>
       </c>
       <c r="L125" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="M125" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="M125" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="N125" s="2"/>
       <c r="O125" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P125" t="s" s="2">
         <v>77</v>
@@ -15461,7 +15433,7 @@
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>105</v>
@@ -15564,7 +15536,7 @@
     </row>
     <row r="127">
       <c r="A127" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>107</v>
@@ -15667,13 +15639,13 @@
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D128" t="s" s="2">
         <v>77</v>
@@ -15698,14 +15670,14 @@
         <v>93</v>
       </c>
       <c r="L128" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="M128" t="s" s="2">
         <v>338</v>
-      </c>
-      <c r="M128" t="s" s="2">
-        <v>339</v>
       </c>
       <c r="N128" s="2"/>
       <c r="O128" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="P128" t="s" s="2">
         <v>77</v>
@@ -15774,10 +15746,10 @@
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C129" s="2"/>
       <c r="D129" t="s" s="2">
@@ -15877,10 +15849,10 @@
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C130" s="2"/>
       <c r="D130" t="s" s="2">
@@ -15980,13 +15952,13 @@
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D131" t="s" s="2">
         <v>77</v>
@@ -16011,10 +15983,10 @@
         <v>93</v>
       </c>
       <c r="L131" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M131" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N131" s="2"/>
       <c r="O131" s="2"/>
@@ -16085,10 +16057,10 @@
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C132" s="2"/>
       <c r="D132" t="s" s="2">
@@ -16188,10 +16160,10 @@
     </row>
     <row r="133">
       <c r="A133" t="s" s="2">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" t="s" s="2">
@@ -16293,10 +16265,10 @@
     </row>
     <row r="134">
       <c r="A134" t="s" s="2">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" t="s" s="2">
@@ -16336,7 +16308,7 @@
       </c>
       <c r="Q134" s="2"/>
       <c r="R134" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S134" t="s" s="2">
         <v>77</v>
@@ -16398,10 +16370,10 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C135" s="2"/>
       <c r="D135" t="s" s="2">
@@ -16427,13 +16399,13 @@
         <v>87</v>
       </c>
       <c r="L135" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" t="s" s="2">
@@ -16441,7 +16413,7 @@
       </c>
       <c r="Q135" s="2"/>
       <c r="R135" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S135" t="s" s="2">
         <v>77</v>
@@ -16503,13 +16475,13 @@
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D136" t="s" s="2">
         <v>77</v>
@@ -16534,14 +16506,14 @@
         <v>93</v>
       </c>
       <c r="L136" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N136" s="2"/>
       <c r="O136" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P136" t="s" s="2">
         <v>77</v>
@@ -16610,10 +16582,10 @@
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" t="s" s="2">
@@ -16713,10 +16685,10 @@
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" t="s" s="2">
@@ -16818,10 +16790,10 @@
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C139" s="2"/>
       <c r="D139" t="s" s="2">
@@ -16861,7 +16833,7 @@
       </c>
       <c r="Q139" s="2"/>
       <c r="R139" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S139" t="s" s="2">
         <v>77</v>
@@ -16923,10 +16895,10 @@
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C140" s="2"/>
       <c r="D140" t="s" s="2">
@@ -16952,10 +16924,10 @@
         <v>137</v>
       </c>
       <c r="L140" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M140" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N140" s="2"/>
       <c r="O140" s="2"/>
@@ -16982,11 +16954,13 @@
         <v>77</v>
       </c>
       <c r="X140" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y140" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y140" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z140" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AA140" t="s" s="2">
         <v>77</v>
@@ -17024,13 +16998,13 @@
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D141" t="s" s="2">
         <v>77</v>
@@ -17055,14 +17029,14 @@
         <v>93</v>
       </c>
       <c r="L141" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M141" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N141" s="2"/>
       <c r="O141" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P141" t="s" s="2">
         <v>77</v>
@@ -17131,10 +17105,10 @@
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C142" s="2"/>
       <c r="D142" t="s" s="2">
@@ -17234,10 +17208,10 @@
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C143" s="2"/>
       <c r="D143" t="s" s="2">
@@ -17339,10 +17313,10 @@
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C144" s="2"/>
       <c r="D144" t="s" s="2">
@@ -17382,7 +17356,7 @@
       </c>
       <c r="Q144" s="2"/>
       <c r="R144" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S144" t="s" s="2">
         <v>77</v>
@@ -17444,10 +17418,10 @@
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C145" s="2"/>
       <c r="D145" t="s" s="2">
@@ -17470,13 +17444,13 @@
         <v>77</v>
       </c>
       <c r="K145" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L145" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N145" s="2"/>
       <c r="O145" s="2"/>
@@ -17547,10 +17521,10 @@
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C146" s="2"/>
       <c r="D146" t="s" s="2">
@@ -17590,7 +17564,7 @@
       </c>
       <c r="Q146" s="2"/>
       <c r="R146" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="S146" t="s" s="2">
         <v>77</v>
@@ -17652,10 +17626,10 @@
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C147" s="2"/>
       <c r="D147" t="s" s="2">
@@ -17678,13 +17652,13 @@
         <v>77</v>
       </c>
       <c r="K147" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N147" s="2"/>
       <c r="O147" s="2"/>
@@ -17755,13 +17729,13 @@
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C148" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D148" t="s" s="2">
         <v>77</v>
@@ -17786,14 +17760,14 @@
         <v>93</v>
       </c>
       <c r="L148" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="M148" t="s" s="2">
         <v>361</v>
-      </c>
-      <c r="M148" t="s" s="2">
-        <v>362</v>
       </c>
       <c r="N148" s="2"/>
       <c r="O148" t="s" s="2">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="P148" t="s" s="2">
         <v>77</v>
@@ -17862,10 +17836,10 @@
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" t="s" s="2">
@@ -17965,10 +17939,10 @@
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C150" s="2"/>
       <c r="D150" t="s" s="2">
@@ -18068,13 +18042,13 @@
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C151" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D151" t="s" s="2">
         <v>77</v>
@@ -18099,10 +18073,10 @@
         <v>93</v>
       </c>
       <c r="L151" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M151" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N151" s="2"/>
       <c r="O151" s="2"/>
@@ -18173,10 +18147,10 @@
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C152" s="2"/>
       <c r="D152" t="s" s="2">
@@ -18276,10 +18250,10 @@
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C153" s="2"/>
       <c r="D153" t="s" s="2">
@@ -18381,10 +18355,10 @@
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C154" s="2"/>
       <c r="D154" t="s" s="2">
@@ -18424,7 +18398,7 @@
       </c>
       <c r="Q154" s="2"/>
       <c r="R154" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S154" t="s" s="2">
         <v>77</v>
@@ -18486,10 +18460,10 @@
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C155" s="2"/>
       <c r="D155" t="s" s="2">
@@ -18515,13 +18489,13 @@
         <v>87</v>
       </c>
       <c r="L155" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M155" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N155" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O155" s="2"/>
       <c r="P155" t="s" s="2">
@@ -18529,7 +18503,7 @@
       </c>
       <c r="Q155" s="2"/>
       <c r="R155" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S155" t="s" s="2">
         <v>77</v>
@@ -18591,13 +18565,13 @@
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C156" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D156" t="s" s="2">
         <v>77</v>
@@ -18622,14 +18596,14 @@
         <v>93</v>
       </c>
       <c r="L156" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M156" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N156" s="2"/>
       <c r="O156" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P156" t="s" s="2">
         <v>77</v>
@@ -18698,10 +18672,10 @@
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C157" s="2"/>
       <c r="D157" t="s" s="2">
@@ -18801,10 +18775,10 @@
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C158" s="2"/>
       <c r="D158" t="s" s="2">
@@ -18906,10 +18880,10 @@
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C159" s="2"/>
       <c r="D159" t="s" s="2">
@@ -18949,7 +18923,7 @@
       </c>
       <c r="Q159" s="2"/>
       <c r="R159" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S159" t="s" s="2">
         <v>77</v>
@@ -19011,10 +18985,10 @@
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C160" s="2"/>
       <c r="D160" t="s" s="2">
@@ -19040,10 +19014,10 @@
         <v>137</v>
       </c>
       <c r="L160" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M160" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N160" s="2"/>
       <c r="O160" s="2"/>
@@ -19070,11 +19044,13 @@
         <v>77</v>
       </c>
       <c r="X160" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y160" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y160" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z160" t="s" s="2">
-        <v>225</v>
+        <v>77</v>
       </c>
       <c r="AA160" t="s" s="2">
         <v>77</v>
@@ -19112,13 +19088,13 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C161" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D161" t="s" s="2">
         <v>77</v>
@@ -19143,14 +19119,14 @@
         <v>93</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M161" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N161" s="2"/>
       <c r="O161" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P161" t="s" s="2">
         <v>77</v>
@@ -19219,10 +19195,10 @@
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C162" s="2"/>
       <c r="D162" t="s" s="2">
@@ -19322,10 +19298,10 @@
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C163" s="2"/>
       <c r="D163" t="s" s="2">
@@ -19427,10 +19403,10 @@
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C164" s="2"/>
       <c r="D164" t="s" s="2">
@@ -19470,7 +19446,7 @@
       </c>
       <c r="Q164" s="2"/>
       <c r="R164" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S164" t="s" s="2">
         <v>77</v>
@@ -19532,10 +19508,10 @@
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C165" s="2"/>
       <c r="D165" t="s" s="2">
@@ -19558,13 +19534,13 @@
         <v>77</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M165" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N165" s="2"/>
       <c r="O165" s="2"/>
@@ -19635,10 +19611,10 @@
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C166" s="2"/>
       <c r="D166" t="s" s="2">
@@ -19678,7 +19654,7 @@
       </c>
       <c r="Q166" s="2"/>
       <c r="R166" t="s" s="2">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="S166" t="s" s="2">
         <v>77</v>
@@ -19740,10 +19716,10 @@
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C167" s="2"/>
       <c r="D167" t="s" s="2">
@@ -19766,13 +19742,13 @@
         <v>77</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N167" s="2"/>
       <c r="O167" s="2"/>
@@ -19843,7 +19819,7 @@
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B168" t="s" s="2">
         <v>107</v>
@@ -19874,14 +19850,14 @@
         <v>93</v>
       </c>
       <c r="L168" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="M168" t="s" s="2">
         <v>384</v>
-      </c>
-      <c r="M168" t="s" s="2">
-        <v>385</v>
       </c>
       <c r="N168" s="2"/>
       <c r="O168" t="s" s="2">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="P168" t="s" s="2">
         <v>77</v>
@@ -19950,10 +19926,10 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C169" s="2"/>
       <c r="D169" t="s" s="2">
@@ -20053,10 +20029,10 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C170" s="2"/>
       <c r="D170" t="s" s="2">
@@ -20156,13 +20132,13 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C171" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D171" t="s" s="2">
         <v>77</v>
@@ -20187,10 +20163,10 @@
         <v>93</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N171" s="2"/>
       <c r="O171" s="2"/>
@@ -20261,10 +20237,10 @@
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C172" s="2"/>
       <c r="D172" t="s" s="2">
@@ -20364,10 +20340,10 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C173" s="2"/>
       <c r="D173" t="s" s="2">
@@ -20469,10 +20445,10 @@
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C174" s="2"/>
       <c r="D174" t="s" s="2">
@@ -20512,7 +20488,7 @@
       </c>
       <c r="Q174" s="2"/>
       <c r="R174" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S174" t="s" s="2">
         <v>77</v>
@@ -20574,10 +20550,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C175" s="2"/>
       <c r="D175" t="s" s="2">
@@ -20603,13 +20579,13 @@
         <v>87</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M175" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N175" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O175" s="2"/>
       <c r="P175" t="s" s="2">
@@ -20617,7 +20593,7 @@
       </c>
       <c r="Q175" s="2"/>
       <c r="R175" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S175" t="s" s="2">
         <v>77</v>
@@ -20679,13 +20655,13 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C176" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D176" t="s" s="2">
         <v>77</v>
@@ -20710,14 +20686,14 @@
         <v>93</v>
       </c>
       <c r="L176" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M176" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N176" s="2"/>
       <c r="O176" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P176" t="s" s="2">
         <v>77</v>
@@ -20786,10 +20762,10 @@
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C177" s="2"/>
       <c r="D177" t="s" s="2">
@@ -20889,10 +20865,10 @@
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C178" s="2"/>
       <c r="D178" t="s" s="2">
@@ -20994,10 +20970,10 @@
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C179" s="2"/>
       <c r="D179" t="s" s="2">
@@ -21037,7 +21013,7 @@
       </c>
       <c r="Q179" s="2"/>
       <c r="R179" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S179" t="s" s="2">
         <v>77</v>
@@ -21099,10 +21075,10 @@
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B180" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C180" s="2"/>
       <c r="D180" t="s" s="2">
@@ -21128,10 +21104,10 @@
         <v>137</v>
       </c>
       <c r="L180" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M180" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N180" s="2"/>
       <c r="O180" s="2"/>
@@ -21158,11 +21134,13 @@
         <v>77</v>
       </c>
       <c r="X180" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y180" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y180" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z180" t="s" s="2">
-        <v>192</v>
+        <v>77</v>
       </c>
       <c r="AA180" t="s" s="2">
         <v>77</v>
@@ -21200,13 +21178,13 @@
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C181" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D181" t="s" s="2">
         <v>77</v>
@@ -21231,14 +21209,14 @@
         <v>93</v>
       </c>
       <c r="L181" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M181" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N181" s="2"/>
       <c r="O181" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P181" t="s" s="2">
         <v>77</v>
@@ -21307,10 +21285,10 @@
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C182" s="2"/>
       <c r="D182" t="s" s="2">
@@ -21410,10 +21388,10 @@
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C183" s="2"/>
       <c r="D183" t="s" s="2">
@@ -21515,10 +21493,10 @@
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C184" s="2"/>
       <c r="D184" t="s" s="2">
@@ -21558,7 +21536,7 @@
       </c>
       <c r="Q184" s="2"/>
       <c r="R184" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S184" t="s" s="2">
         <v>77</v>
@@ -21620,10 +21598,10 @@
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C185" s="2"/>
       <c r="D185" t="s" s="2">
@@ -21646,13 +21624,13 @@
         <v>77</v>
       </c>
       <c r="K185" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L185" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M185" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N185" s="2"/>
       <c r="O185" s="2"/>
@@ -21723,10 +21701,10 @@
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C186" s="2"/>
       <c r="D186" t="s" s="2">
@@ -21828,10 +21806,10 @@
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B187" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C187" s="2"/>
       <c r="D187" t="s" s="2">
@@ -21854,13 +21832,13 @@
         <v>77</v>
       </c>
       <c r="K187" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L187" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M187" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N187" s="2"/>
       <c r="O187" s="2"/>
@@ -21931,13 +21909,13 @@
     </row>
     <row r="188">
       <c r="A188" t="s" s="2">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B188" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C188" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D188" t="s" s="2">
         <v>77</v>
@@ -21962,14 +21940,14 @@
         <v>93</v>
       </c>
       <c r="L188" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="M188" t="s" s="2">
         <v>408</v>
-      </c>
-      <c r="M188" t="s" s="2">
-        <v>409</v>
       </c>
       <c r="N188" s="2"/>
       <c r="O188" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="P188" t="s" s="2">
         <v>77</v>
@@ -22038,10 +22016,10 @@
     </row>
     <row r="189">
       <c r="A189" t="s" s="2">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B189" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" t="s" s="2">
@@ -22141,10 +22119,10 @@
     </row>
     <row r="190">
       <c r="A190" t="s" s="2">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B190" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C190" s="2"/>
       <c r="D190" t="s" s="2">
@@ -22244,13 +22222,13 @@
     </row>
     <row r="191">
       <c r="A191" t="s" s="2">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C191" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D191" t="s" s="2">
         <v>77</v>
@@ -22275,10 +22253,10 @@
         <v>93</v>
       </c>
       <c r="L191" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M191" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N191" s="2"/>
       <c r="O191" s="2"/>
@@ -22349,10 +22327,10 @@
     </row>
     <row r="192">
       <c r="A192" t="s" s="2">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C192" s="2"/>
       <c r="D192" t="s" s="2">
@@ -22452,10 +22430,10 @@
     </row>
     <row r="193">
       <c r="A193" t="s" s="2">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B193" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C193" s="2"/>
       <c r="D193" t="s" s="2">
@@ -22557,10 +22535,10 @@
     </row>
     <row r="194">
       <c r="A194" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B194" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C194" s="2"/>
       <c r="D194" t="s" s="2">
@@ -22600,7 +22578,7 @@
       </c>
       <c r="Q194" s="2"/>
       <c r="R194" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S194" t="s" s="2">
         <v>77</v>
@@ -22662,10 +22640,10 @@
     </row>
     <row r="195">
       <c r="A195" t="s" s="2">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B195" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C195" s="2"/>
       <c r="D195" t="s" s="2">
@@ -22691,13 +22669,13 @@
         <v>87</v>
       </c>
       <c r="L195" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M195" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N195" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O195" s="2"/>
       <c r="P195" t="s" s="2">
@@ -22705,7 +22683,7 @@
       </c>
       <c r="Q195" s="2"/>
       <c r="R195" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S195" t="s" s="2">
         <v>77</v>
@@ -22767,13 +22745,13 @@
     </row>
     <row r="196">
       <c r="A196" t="s" s="2">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C196" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D196" t="s" s="2">
         <v>77</v>
@@ -22798,14 +22776,14 @@
         <v>93</v>
       </c>
       <c r="L196" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M196" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N196" s="2"/>
       <c r="O196" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P196" t="s" s="2">
         <v>77</v>
@@ -22874,10 +22852,10 @@
     </row>
     <row r="197">
       <c r="A197" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C197" s="2"/>
       <c r="D197" t="s" s="2">
@@ -22977,10 +22955,10 @@
     </row>
     <row r="198">
       <c r="A198" t="s" s="2">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B198" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C198" s="2"/>
       <c r="D198" t="s" s="2">
@@ -23082,10 +23060,10 @@
     </row>
     <row r="199">
       <c r="A199" t="s" s="2">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C199" s="2"/>
       <c r="D199" t="s" s="2">
@@ -23125,7 +23103,7 @@
       </c>
       <c r="Q199" s="2"/>
       <c r="R199" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S199" t="s" s="2">
         <v>77</v>
@@ -23187,10 +23165,10 @@
     </row>
     <row r="200">
       <c r="A200" t="s" s="2">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B200" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C200" s="2"/>
       <c r="D200" t="s" s="2">
@@ -23216,10 +23194,10 @@
         <v>137</v>
       </c>
       <c r="L200" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M200" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N200" s="2"/>
       <c r="O200" s="2"/>
@@ -23250,7 +23228,7 @@
       </c>
       <c r="Y200" s="2"/>
       <c r="Z200" t="s" s="2">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="AA200" t="s" s="2">
         <v>77</v>
@@ -23288,13 +23266,13 @@
     </row>
     <row r="201">
       <c r="A201" t="s" s="2">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B201" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C201" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D201" t="s" s="2">
         <v>77</v>
@@ -23319,14 +23297,14 @@
         <v>93</v>
       </c>
       <c r="L201" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M201" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N201" s="2"/>
       <c r="O201" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P201" t="s" s="2">
         <v>77</v>
@@ -23395,10 +23373,10 @@
     </row>
     <row r="202">
       <c r="A202" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B202" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C202" s="2"/>
       <c r="D202" t="s" s="2">
@@ -23498,10 +23476,10 @@
     </row>
     <row r="203">
       <c r="A203" t="s" s="2">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C203" s="2"/>
       <c r="D203" t="s" s="2">
@@ -23603,10 +23581,10 @@
     </row>
     <row r="204">
       <c r="A204" t="s" s="2">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B204" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C204" s="2"/>
       <c r="D204" t="s" s="2">
@@ -23646,7 +23624,7 @@
       </c>
       <c r="Q204" s="2"/>
       <c r="R204" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S204" t="s" s="2">
         <v>77</v>
@@ -23708,10 +23686,10 @@
     </row>
     <row r="205">
       <c r="A205" t="s" s="2">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B205" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C205" s="2"/>
       <c r="D205" t="s" s="2">
@@ -23734,13 +23712,13 @@
         <v>77</v>
       </c>
       <c r="K205" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L205" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M205" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N205" s="2"/>
       <c r="O205" s="2"/>
@@ -23811,10 +23789,10 @@
     </row>
     <row r="206">
       <c r="A206" t="s" s="2">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B206" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C206" s="2"/>
       <c r="D206" t="s" s="2">
@@ -23854,7 +23832,7 @@
       </c>
       <c r="Q206" s="2"/>
       <c r="R206" t="s" s="2">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="S206" t="s" s="2">
         <v>77</v>
@@ -23916,10 +23894,10 @@
     </row>
     <row r="207">
       <c r="A207" t="s" s="2">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C207" s="2"/>
       <c r="D207" t="s" s="2">
@@ -23942,13 +23920,13 @@
         <v>77</v>
       </c>
       <c r="K207" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L207" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M207" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N207" s="2"/>
       <c r="O207" s="2"/>
@@ -24019,13 +23997,13 @@
     </row>
     <row r="208">
       <c r="A208" t="s" s="2">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B208" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C208" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D208" t="s" s="2">
         <v>77</v>
@@ -24050,14 +24028,14 @@
         <v>93</v>
       </c>
       <c r="L208" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M208" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M208" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N208" s="2"/>
       <c r="O208" t="s" s="2">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="P208" t="s" s="2">
         <v>77</v>
@@ -24126,10 +24104,10 @@
     </row>
     <row r="209">
       <c r="A209" t="s" s="2">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B209" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C209" s="2"/>
       <c r="D209" t="s" s="2">
@@ -24229,10 +24207,10 @@
     </row>
     <row r="210">
       <c r="A210" t="s" s="2">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C210" s="2"/>
       <c r="D210" t="s" s="2">
@@ -24334,10 +24312,10 @@
     </row>
     <row r="211">
       <c r="A211" t="s" s="2">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C211" s="2"/>
       <c r="D211" t="s" s="2">
@@ -24377,7 +24355,7 @@
       </c>
       <c r="Q211" s="2"/>
       <c r="R211" t="s" s="2">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="S211" t="s" s="2">
         <v>77</v>
@@ -24439,10 +24417,10 @@
     </row>
     <row r="212">
       <c r="A212" t="s" s="2">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C212" s="2"/>
       <c r="D212" t="s" s="2">
@@ -24465,13 +24443,13 @@
         <v>77</v>
       </c>
       <c r="K212" t="s" s="2">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="L212" t="s" s="2">
+        <v>432</v>
+      </c>
+      <c r="M212" t="s" s="2">
         <v>433</v>
-      </c>
-      <c r="M212" t="s" s="2">
-        <v>434</v>
       </c>
       <c r="N212" s="2"/>
       <c r="O212" s="2"/>
@@ -24542,13 +24520,13 @@
     </row>
     <row r="213">
       <c r="A213" t="s" s="2">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B213" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D213" t="s" s="2">
         <v>77</v>
@@ -24573,14 +24551,14 @@
         <v>93</v>
       </c>
       <c r="L213" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M213" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M213" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N213" s="2"/>
       <c r="O213" t="s" s="2">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P213" t="s" s="2">
         <v>77</v>
@@ -24649,10 +24627,10 @@
     </row>
     <row r="214">
       <c r="A214" t="s" s="2">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C214" s="2"/>
       <c r="D214" t="s" s="2">
@@ -24752,10 +24730,10 @@
     </row>
     <row r="215">
       <c r="A215" t="s" s="2">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C215" s="2"/>
       <c r="D215" t="s" s="2">
@@ -24857,10 +24835,10 @@
     </row>
     <row r="216">
       <c r="A216" t="s" s="2">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C216" s="2"/>
       <c r="D216" t="s" s="2">
@@ -24900,7 +24878,7 @@
       </c>
       <c r="Q216" s="2"/>
       <c r="R216" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S216" t="s" s="2">
         <v>77</v>
@@ -24962,10 +24940,10 @@
     </row>
     <row r="217">
       <c r="A217" t="s" s="2">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C217" s="2"/>
       <c r="D217" t="s" s="2">
@@ -24991,10 +24969,10 @@
         <v>266</v>
       </c>
       <c r="L217" t="s" s="2">
+        <v>442</v>
+      </c>
+      <c r="M217" t="s" s="2">
         <v>443</v>
-      </c>
-      <c r="M217" t="s" s="2">
-        <v>444</v>
       </c>
       <c r="N217" s="2"/>
       <c r="O217" s="2"/>
@@ -25065,7 +25043,7 @@
     </row>
     <row r="218">
       <c r="A218" t="s" s="2">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B218" t="s" s="2">
         <v>107</v>
@@ -25105,7 +25083,7 @@
         <v>271</v>
       </c>
       <c r="O218" t="s" s="2">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="P218" t="s" s="2">
         <v>77</v>
@@ -25174,10 +25152,10 @@
     </row>
     <row r="219">
       <c r="A219" t="s" s="2">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C219" s="2"/>
       <c r="D219" t="s" s="2">
@@ -25277,10 +25255,10 @@
     </row>
     <row r="220">
       <c r="A220" t="s" s="2">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C220" s="2"/>
       <c r="D220" t="s" s="2">
@@ -25382,10 +25360,10 @@
     </row>
     <row r="221">
       <c r="A221" t="s" s="2">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" t="s" s="2">
@@ -25487,10 +25465,10 @@
     </row>
     <row r="222">
       <c r="A222" t="s" s="2">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" t="s" s="2">
@@ -25592,7 +25570,7 @@
     </row>
     <row r="223">
       <c r="A223" t="s" s="2">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B223" t="s" s="2">
         <v>107</v>
@@ -25623,14 +25601,14 @@
         <v>93</v>
       </c>
       <c r="L223" t="s" s="2">
+        <v>456</v>
+      </c>
+      <c r="M223" t="s" s="2">
         <v>457</v>
-      </c>
-      <c r="M223" t="s" s="2">
-        <v>458</v>
       </c>
       <c r="N223" s="2"/>
       <c r="O223" t="s" s="2">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="P223" t="s" s="2">
         <v>77</v>
@@ -25699,10 +25677,10 @@
     </row>
     <row r="224">
       <c r="A224" t="s" s="2">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C224" s="2"/>
       <c r="D224" t="s" s="2">
@@ -25802,10 +25780,10 @@
     </row>
     <row r="225">
       <c r="A225" t="s" s="2">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B225" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C225" s="2"/>
       <c r="D225" t="s" s="2">
@@ -25907,10 +25885,10 @@
     </row>
     <row r="226">
       <c r="A226" t="s" s="2">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B226" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C226" s="2"/>
       <c r="D226" t="s" s="2">
@@ -25950,7 +25928,7 @@
       </c>
       <c r="Q226" s="2"/>
       <c r="R226" t="s" s="2">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="S226" t="s" s="2">
         <v>77</v>
@@ -26012,10 +25990,10 @@
     </row>
     <row r="227">
       <c r="A227" t="s" s="2">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C227" s="2"/>
       <c r="D227" t="s" s="2">
@@ -26038,13 +26016,13 @@
         <v>77</v>
       </c>
       <c r="K227" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L227" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M227" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N227" s="2"/>
       <c r="O227" s="2"/>
@@ -26115,7 +26093,7 @@
     </row>
     <row r="228">
       <c r="A228" t="s" s="2">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B228" t="s" s="2">
         <v>113</v>
@@ -26220,7 +26198,7 @@
     </row>
     <row r="229">
       <c r="A229" t="s" s="2">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B229" t="s" s="2">
         <v>121</v>
@@ -26246,13 +26224,13 @@
         <v>77</v>
       </c>
       <c r="K229" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L229" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M229" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N229" s="2"/>
       <c r="O229" s="2"/>
@@ -26323,13 +26301,13 @@
     </row>
     <row r="230">
       <c r="A230" t="s" s="2">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B230" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C230" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="D230" t="s" s="2">
         <v>77</v>
@@ -26354,14 +26332,14 @@
         <v>93</v>
       </c>
       <c r="L230" t="s" s="2">
+        <v>468</v>
+      </c>
+      <c r="M230" t="s" s="2">
         <v>469</v>
-      </c>
-      <c r="M230" t="s" s="2">
-        <v>470</v>
       </c>
       <c r="N230" s="2"/>
       <c r="O230" t="s" s="2">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="P230" t="s" s="2">
         <v>77</v>
@@ -26430,7 +26408,7 @@
     </row>
     <row r="231">
       <c r="A231" t="s" s="2">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B231" t="s" s="2">
         <v>105</v>
@@ -26533,7 +26511,7 @@
     </row>
     <row r="232">
       <c r="A232" t="s" s="2">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B232" t="s" s="2">
         <v>107</v>
@@ -26636,13 +26614,13 @@
     </row>
     <row r="233">
       <c r="A233" t="s" s="2">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B233" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C233" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D233" t="s" s="2">
         <v>77</v>
@@ -26667,14 +26645,14 @@
         <v>93</v>
       </c>
       <c r="L233" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M233" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M233" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N233" s="2"/>
       <c r="O233" t="s" s="2">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="P233" t="s" s="2">
         <v>77</v>
@@ -26743,10 +26721,10 @@
     </row>
     <row r="234">
       <c r="A234" t="s" s="2">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C234" s="2"/>
       <c r="D234" t="s" s="2">
@@ -26846,10 +26824,10 @@
     </row>
     <row r="235">
       <c r="A235" t="s" s="2">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C235" s="2"/>
       <c r="D235" t="s" s="2">
@@ -26949,13 +26927,13 @@
     </row>
     <row r="236">
       <c r="A236" t="s" s="2">
+        <v>480</v>
+      </c>
+      <c r="B236" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="C236" t="s" s="2">
         <v>481</v>
-      </c>
-      <c r="B236" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="C236" t="s" s="2">
-        <v>482</v>
       </c>
       <c r="D236" t="s" s="2">
         <v>77</v>
@@ -26980,14 +26958,14 @@
         <v>93</v>
       </c>
       <c r="L236" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M236" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M236" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N236" s="2"/>
       <c r="O236" t="s" s="2">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="P236" t="s" s="2">
         <v>77</v>
@@ -27056,10 +27034,10 @@
     </row>
     <row r="237">
       <c r="A237" t="s" s="2">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C237" s="2"/>
       <c r="D237" t="s" s="2">
@@ -27159,10 +27137,10 @@
     </row>
     <row r="238">
       <c r="A238" t="s" s="2">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" t="s" s="2">
@@ -27264,10 +27242,10 @@
     </row>
     <row r="239">
       <c r="A239" t="s" s="2">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C239" s="2"/>
       <c r="D239" t="s" s="2">
@@ -27307,7 +27285,7 @@
       </c>
       <c r="Q239" s="2"/>
       <c r="R239" t="s" s="2">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="S239" t="s" s="2">
         <v>77</v>
@@ -27369,10 +27347,10 @@
     </row>
     <row r="240">
       <c r="A240" t="s" s="2">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C240" s="2"/>
       <c r="D240" t="s" s="2">
@@ -27395,13 +27373,13 @@
         <v>77</v>
       </c>
       <c r="K240" t="s" s="2">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L240" t="s" s="2">
+        <v>475</v>
+      </c>
+      <c r="M240" t="s" s="2">
         <v>476</v>
-      </c>
-      <c r="M240" t="s" s="2">
-        <v>477</v>
       </c>
       <c r="N240" s="2"/>
       <c r="O240" s="2"/>
@@ -27472,10 +27450,10 @@
     </row>
     <row r="241">
       <c r="A241" t="s" s="2">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C241" s="2"/>
       <c r="D241" t="s" s="2">
@@ -27515,7 +27493,7 @@
       </c>
       <c r="Q241" s="2"/>
       <c r="R241" t="s" s="2">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="S241" t="s" s="2">
         <v>77</v>
@@ -27577,10 +27555,10 @@
     </row>
     <row r="242">
       <c r="A242" t="s" s="2">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B242" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" t="s" s="2">
@@ -27603,13 +27581,13 @@
         <v>77</v>
       </c>
       <c r="K242" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L242" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M242" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
@@ -27680,7 +27658,7 @@
     </row>
     <row r="243">
       <c r="A243" t="s" s="2">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B243" t="s" s="2">
         <v>107</v>
@@ -27711,14 +27689,14 @@
         <v>93</v>
       </c>
       <c r="L243" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M243" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M243" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N243" s="2"/>
       <c r="O243" t="s" s="2">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P243" t="s" s="2">
         <v>77</v>
@@ -27787,10 +27765,10 @@
     </row>
     <row r="244">
       <c r="A244" t="s" s="2">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B244" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" t="s" s="2">
@@ -27890,10 +27868,10 @@
     </row>
     <row r="245">
       <c r="A245" t="s" s="2">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B245" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C245" s="2"/>
       <c r="D245" t="s" s="2">
@@ -27995,10 +27973,10 @@
     </row>
     <row r="246">
       <c r="A246" t="s" s="2">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C246" s="2"/>
       <c r="D246" t="s" s="2">
@@ -28100,10 +28078,10 @@
     </row>
     <row r="247">
       <c r="A247" t="s" s="2">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B247" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C247" s="2"/>
       <c r="D247" t="s" s="2">
@@ -28129,10 +28107,10 @@
         <v>137</v>
       </c>
       <c r="L247" t="s" s="2">
+        <v>491</v>
+      </c>
+      <c r="M247" t="s" s="2">
         <v>492</v>
-      </c>
-      <c r="M247" t="s" s="2">
-        <v>493</v>
       </c>
       <c r="N247" s="2"/>
       <c r="O247" s="2"/>
@@ -28159,13 +28137,13 @@
         <v>77</v>
       </c>
       <c r="X247" t="s" s="2">
+        <v>498</v>
+      </c>
+      <c r="Y247" t="s" s="2">
         <v>499</v>
       </c>
-      <c r="Y247" t="s" s="2">
+      <c r="Z247" t="s" s="2">
         <v>500</v>
-      </c>
-      <c r="Z247" t="s" s="2">
-        <v>501</v>
       </c>
       <c r="AA247" t="s" s="2">
         <v>77</v>
@@ -28203,13 +28181,13 @@
     </row>
     <row r="248">
       <c r="A248" t="s" s="2">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B248" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C248" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="D248" t="s" s="2">
         <v>77</v>
@@ -28234,14 +28212,14 @@
         <v>93</v>
       </c>
       <c r="L248" t="s" s="2">
+        <v>503</v>
+      </c>
+      <c r="M248" t="s" s="2">
         <v>504</v>
-      </c>
-      <c r="M248" t="s" s="2">
-        <v>505</v>
       </c>
       <c r="N248" s="2"/>
       <c r="O248" t="s" s="2">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P248" t="s" s="2">
         <v>77</v>
@@ -28310,10 +28288,10 @@
     </row>
     <row r="249">
       <c r="A249" t="s" s="2">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B249" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C249" s="2"/>
       <c r="D249" t="s" s="2">
@@ -28413,10 +28391,10 @@
     </row>
     <row r="250">
       <c r="A250" t="s" s="2">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B250" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C250" s="2"/>
       <c r="D250" t="s" s="2">
@@ -28516,13 +28494,13 @@
     </row>
     <row r="251">
       <c r="A251" t="s" s="2">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B251" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C251" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D251" t="s" s="2">
         <v>77</v>
@@ -28547,10 +28525,10 @@
         <v>93</v>
       </c>
       <c r="L251" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N251" s="2"/>
       <c r="O251" s="2"/>
@@ -28621,10 +28599,10 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C252" s="2"/>
       <c r="D252" t="s" s="2">
@@ -28724,10 +28702,10 @@
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C253" s="2"/>
       <c r="D253" t="s" s="2">
@@ -28829,10 +28807,10 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C254" s="2"/>
       <c r="D254" t="s" s="2">
@@ -28872,7 +28850,7 @@
       </c>
       <c r="Q254" s="2"/>
       <c r="R254" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S254" t="s" s="2">
         <v>77</v>
@@ -28934,10 +28912,10 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C255" s="2"/>
       <c r="D255" t="s" s="2">
@@ -28963,13 +28941,13 @@
         <v>87</v>
       </c>
       <c r="L255" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M255" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N255" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O255" s="2"/>
       <c r="P255" t="s" s="2">
@@ -28977,7 +28955,7 @@
       </c>
       <c r="Q255" s="2"/>
       <c r="R255" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S255" t="s" s="2">
         <v>77</v>
@@ -29039,13 +29017,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D256" t="s" s="2">
         <v>77</v>
@@ -29070,14 +29048,14 @@
         <v>93</v>
       </c>
       <c r="L256" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M256" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N256" s="2"/>
       <c r="O256" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P256" t="s" s="2">
         <v>77</v>
@@ -29146,10 +29124,10 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C257" s="2"/>
       <c r="D257" t="s" s="2">
@@ -29249,10 +29227,10 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C258" s="2"/>
       <c r="D258" t="s" s="2">
@@ -29354,10 +29332,10 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C259" s="2"/>
       <c r="D259" t="s" s="2">
@@ -29397,7 +29375,7 @@
       </c>
       <c r="Q259" s="2"/>
       <c r="R259" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S259" t="s" s="2">
         <v>77</v>
@@ -29459,10 +29437,10 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B260" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C260" s="2"/>
       <c r="D260" t="s" s="2">
@@ -29488,10 +29466,10 @@
         <v>137</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M260" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N260" s="2"/>
       <c r="O260" s="2"/>
@@ -29518,11 +29496,13 @@
         <v>77</v>
       </c>
       <c r="X260" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y260" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y260" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z260" t="s" s="2">
-        <v>519</v>
+        <v>77</v>
       </c>
       <c r="AA260" t="s" s="2">
         <v>77</v>
@@ -29560,13 +29540,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D261" t="s" s="2">
         <v>77</v>
@@ -29591,14 +29571,14 @@
         <v>93</v>
       </c>
       <c r="L261" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M261" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N261" s="2"/>
       <c r="O261" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P261" t="s" s="2">
         <v>77</v>
@@ -29667,10 +29647,10 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C262" s="2"/>
       <c r="D262" t="s" s="2">
@@ -29770,10 +29750,10 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C263" s="2"/>
       <c r="D263" t="s" s="2">
@@ -29875,10 +29855,10 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" t="s" s="2">
@@ -29918,7 +29898,7 @@
       </c>
       <c r="Q264" s="2"/>
       <c r="R264" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S264" t="s" s="2">
         <v>77</v>
@@ -29980,10 +29960,10 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C265" s="2"/>
       <c r="D265" t="s" s="2">
@@ -30006,13 +29986,13 @@
         <v>77</v>
       </c>
       <c r="K265" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L265" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M265" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N265" s="2"/>
       <c r="O265" s="2"/>
@@ -30083,10 +30063,10 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C266" s="2"/>
       <c r="D266" t="s" s="2">
@@ -30126,7 +30106,7 @@
       </c>
       <c r="Q266" s="2"/>
       <c r="R266" t="s" s="2">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="S266" t="s" s="2">
         <v>77</v>
@@ -30188,10 +30168,10 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C267" s="2"/>
       <c r="D267" t="s" s="2">
@@ -30214,13 +30194,13 @@
         <v>77</v>
       </c>
       <c r="K267" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L267" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N267" s="2"/>
       <c r="O267" s="2"/>
@@ -30291,13 +30271,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B268" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="D268" t="s" s="2">
         <v>77</v>
@@ -30322,14 +30302,14 @@
         <v>93</v>
       </c>
       <c r="L268" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M268" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N268" s="2"/>
       <c r="O268" t="s" s="2">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="P268" t="s" s="2">
         <v>77</v>
@@ -30398,10 +30378,10 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C269" s="2"/>
       <c r="D269" t="s" s="2">
@@ -30501,10 +30481,10 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C270" s="2"/>
       <c r="D270" t="s" s="2">
@@ -30606,10 +30586,10 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B271" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C271" s="2"/>
       <c r="D271" t="s" s="2">
@@ -30649,7 +30629,7 @@
       </c>
       <c r="Q271" s="2"/>
       <c r="R271" t="s" s="2">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="S271" t="s" s="2">
         <v>77</v>
@@ -30711,10 +30691,10 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C272" s="2"/>
       <c r="D272" t="s" s="2">
@@ -30740,10 +30720,10 @@
         <v>137</v>
       </c>
       <c r="L272" t="s" s="2">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="M272" t="s" s="2">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="N272" s="2"/>
       <c r="O272" s="2"/>
@@ -30770,13 +30750,13 @@
         <v>77</v>
       </c>
       <c r="X272" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y272" t="s" s="2">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="Z272" t="s" s="2">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="AA272" t="s" s="2">
         <v>77</v>
@@ -30814,13 +30794,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B273" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="D273" t="s" s="2">
         <v>77</v>
@@ -30845,14 +30825,14 @@
         <v>93</v>
       </c>
       <c r="L273" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M273" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N273" s="2"/>
       <c r="O273" t="s" s="2">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="P273" t="s" s="2">
         <v>77</v>
@@ -30921,10 +30901,10 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C274" s="2"/>
       <c r="D274" t="s" s="2">
@@ -31024,10 +31004,10 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C275" s="2"/>
       <c r="D275" t="s" s="2">
@@ -31129,10 +31109,10 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C276" s="2"/>
       <c r="D276" t="s" s="2">
@@ -31172,7 +31152,7 @@
       </c>
       <c r="Q276" s="2"/>
       <c r="R276" t="s" s="2">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="S276" t="s" s="2">
         <v>77</v>
@@ -31234,10 +31214,10 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C277" s="2"/>
       <c r="D277" t="s" s="2">
@@ -31263,10 +31243,10 @@
         <v>137</v>
       </c>
       <c r="L277" t="s" s="2">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="M277" t="s" s="2">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="N277" s="2"/>
       <c r="O277" s="2"/>
@@ -31337,7 +31317,7 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B278" t="s" s="2">
         <v>113</v>
@@ -31380,7 +31360,7 @@
       </c>
       <c r="Q278" s="2"/>
       <c r="R278" t="s" s="2">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="S278" t="s" s="2">
         <v>77</v>
@@ -31442,7 +31422,7 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B279" t="s" s="2">
         <v>121</v>
@@ -31468,13 +31448,13 @@
         <v>77</v>
       </c>
       <c r="K279" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L279" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M279" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N279" s="2"/>
       <c r="O279" s="2"/>
@@ -31545,13 +31525,13 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B280" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C280" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="D280" t="s" s="2">
         <v>77</v>
@@ -31576,14 +31556,14 @@
         <v>93</v>
       </c>
       <c r="L280" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N280" s="2"/>
       <c r="O280" t="s" s="2">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="P280" t="s" s="2">
         <v>77</v>
@@ -31652,7 +31632,7 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B281" t="s" s="2">
         <v>105</v>
@@ -31755,7 +31735,7 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B282" t="s" s="2">
         <v>107</v>
@@ -31860,7 +31840,7 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B283" t="s" s="2">
         <v>113</v>
@@ -31903,7 +31883,7 @@
       </c>
       <c r="Q283" s="2"/>
       <c r="R283" t="s" s="2">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="S283" t="s" s="2">
         <v>77</v>
@@ -31965,7 +31945,7 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B284" t="s" s="2">
         <v>121</v>
@@ -31991,13 +31971,13 @@
         <v>77</v>
       </c>
       <c r="K284" t="s" s="2">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="L284" t="s" s="2">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="M284" t="s" s="2">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="N284" s="2"/>
       <c r="O284" s="2"/>
@@ -32068,13 +32048,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B285" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="D285" t="s" s="2">
         <v>77</v>
@@ -32099,14 +32079,14 @@
         <v>93</v>
       </c>
       <c r="L285" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M285" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N285" s="2"/>
       <c r="O285" t="s" s="2">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="P285" t="s" s="2">
         <v>77</v>
@@ -32175,7 +32155,7 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B286" t="s" s="2">
         <v>105</v>
@@ -32278,7 +32258,7 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="B287" t="s" s="2">
         <v>107</v>
@@ -32383,7 +32363,7 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>566</v>
+        <v>564</v>
       </c>
       <c r="B288" t="s" s="2">
         <v>113</v>
@@ -32426,7 +32406,7 @@
       </c>
       <c r="Q288" s="2"/>
       <c r="R288" t="s" s="2">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="S288" t="s" s="2">
         <v>77</v>
@@ -32488,7 +32468,7 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="B289" t="s" s="2">
         <v>121</v>
@@ -32514,13 +32494,13 @@
         <v>77</v>
       </c>
       <c r="K289" t="s" s="2">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="L289" t="s" s="2">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="N289" s="2"/>
       <c r="O289" s="2"/>
@@ -32591,13 +32571,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B290" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="D290" t="s" s="2">
         <v>77</v>
@@ -32622,14 +32602,14 @@
         <v>93</v>
       </c>
       <c r="L290" t="s" s="2">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="M290" t="s" s="2">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="N290" s="2"/>
       <c r="O290" t="s" s="2">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="P290" t="s" s="2">
         <v>77</v>
@@ -32698,7 +32678,7 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B291" t="s" s="2">
         <v>105</v>
@@ -32801,7 +32781,7 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B292" t="s" s="2">
         <v>107</v>
@@ -32904,13 +32884,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="B293" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="D293" t="s" s="2">
         <v>77</v>
@@ -32935,14 +32915,14 @@
         <v>93</v>
       </c>
       <c r="L293" t="s" s="2">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="M293" t="s" s="2">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="N293" s="2"/>
       <c r="O293" t="s" s="2">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="P293" t="s" s="2">
         <v>77</v>
@@ -33011,10 +32991,10 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C294" s="2"/>
       <c r="D294" t="s" s="2">
@@ -33114,10 +33094,10 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C295" s="2"/>
       <c r="D295" t="s" s="2">
@@ -33217,13 +33197,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>582</v>
+        <v>580</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D296" t="s" s="2">
         <v>77</v>
@@ -33248,10 +33228,10 @@
         <v>93</v>
       </c>
       <c r="L296" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M296" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="N296" s="2"/>
       <c r="O296" s="2"/>
@@ -33322,10 +33302,10 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C297" s="2"/>
       <c r="D297" t="s" s="2">
@@ -33425,10 +33405,10 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>584</v>
+        <v>582</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C298" s="2"/>
       <c r="D298" t="s" s="2">
@@ -33530,10 +33510,10 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C299" s="2"/>
       <c r="D299" t="s" s="2">
@@ -33573,7 +33553,7 @@
       </c>
       <c r="Q299" s="2"/>
       <c r="R299" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="S299" t="s" s="2">
         <v>77</v>
@@ -33635,10 +33615,10 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="B300" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C300" s="2"/>
       <c r="D300" t="s" s="2">
@@ -33664,13 +33644,13 @@
         <v>87</v>
       </c>
       <c r="L300" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M300" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N300" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="O300" s="2"/>
       <c r="P300" t="s" s="2">
@@ -33678,7 +33658,7 @@
       </c>
       <c r="Q300" s="2"/>
       <c r="R300" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="S300" t="s" s="2">
         <v>77</v>
@@ -33740,13 +33720,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B301" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C301" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D301" t="s" s="2">
         <v>77</v>
@@ -33771,14 +33751,14 @@
         <v>93</v>
       </c>
       <c r="L301" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M301" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N301" s="2"/>
       <c r="O301" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P301" t="s" s="2">
         <v>77</v>
@@ -33847,10 +33827,10 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B302" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C302" s="2"/>
       <c r="D302" t="s" s="2">
@@ -33950,10 +33930,10 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B303" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C303" s="2"/>
       <c r="D303" t="s" s="2">
@@ -34055,10 +34035,10 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B304" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C304" s="2"/>
       <c r="D304" t="s" s="2">
@@ -34098,7 +34078,7 @@
       </c>
       <c r="Q304" s="2"/>
       <c r="R304" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="S304" t="s" s="2">
         <v>77</v>
@@ -34160,10 +34140,10 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="B305" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C305" s="2"/>
       <c r="D305" t="s" s="2">
@@ -34189,10 +34169,10 @@
         <v>137</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="N305" s="2"/>
       <c r="O305" s="2"/>
@@ -34219,11 +34199,13 @@
         <v>77</v>
       </c>
       <c r="X305" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="Y305" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="Y305" t="s" s="2">
+        <v>77</v>
+      </c>
       <c r="Z305" t="s" s="2">
-        <v>592</v>
+        <v>77</v>
       </c>
       <c r="AA305" t="s" s="2">
         <v>77</v>
@@ -34261,13 +34243,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D306" t="s" s="2">
         <v>77</v>
@@ -34292,14 +34274,14 @@
         <v>93</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N306" s="2"/>
       <c r="O306" t="s" s="2">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P306" t="s" s="2">
         <v>77</v>
@@ -34368,10 +34350,10 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C307" s="2"/>
       <c r="D307" t="s" s="2">
@@ -34471,10 +34453,10 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C308" s="2"/>
       <c r="D308" t="s" s="2">
@@ -34576,10 +34558,10 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C309" s="2"/>
       <c r="D309" t="s" s="2">
@@ -34619,7 +34601,7 @@
       </c>
       <c r="Q309" s="2"/>
       <c r="R309" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="S309" t="s" s="2">
         <v>77</v>
@@ -34681,10 +34663,10 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B310" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C310" s="2"/>
       <c r="D310" t="s" s="2">
@@ -34707,13 +34689,13 @@
         <v>77</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
@@ -34784,10 +34766,10 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B311" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C311" s="2"/>
       <c r="D311" t="s" s="2">
@@ -34827,7 +34809,7 @@
       </c>
       <c r="Q311" s="2"/>
       <c r="R311" t="s" s="2">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="S311" t="s" s="2">
         <v>77</v>
@@ -34889,10 +34871,10 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B312" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C312" s="2"/>
       <c r="D312" t="s" s="2">
@@ -34915,13 +34897,13 @@
         <v>77</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N312" s="2"/>
       <c r="O312" s="2"/>
@@ -34992,13 +34974,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B313" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D313" t="s" s="2">
         <v>77</v>
@@ -35023,14 +35005,14 @@
         <v>93</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N313" s="2"/>
       <c r="O313" t="s" s="2">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="P313" t="s" s="2">
         <v>77</v>
@@ -35099,10 +35081,10 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" t="s" s="2">
@@ -35202,10 +35184,10 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C315" s="2"/>
       <c r="D315" t="s" s="2">
@@ -35307,10 +35289,10 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C316" s="2"/>
       <c r="D316" t="s" s="2">
@@ -35350,7 +35332,7 @@
       </c>
       <c r="Q316" s="2"/>
       <c r="R316" t="s" s="2">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="S316" t="s" s="2">
         <v>77</v>
@@ -35412,10 +35394,10 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C317" s="2"/>
       <c r="D317" t="s" s="2">
@@ -35441,10 +35423,10 @@
         <v>137</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="N317" s="2"/>
       <c r="O317" s="2"/>
@@ -35515,13 +35497,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B318" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="D318" t="s" s="2">
         <v>77</v>
@@ -35546,14 +35528,14 @@
         <v>93</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N318" s="2"/>
       <c r="O318" t="s" s="2">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="P318" t="s" s="2">
         <v>77</v>
@@ -35622,10 +35604,10 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C319" s="2"/>
       <c r="D319" t="s" s="2">
@@ -35725,10 +35707,10 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C320" s="2"/>
       <c r="D320" t="s" s="2">
@@ -35830,10 +35812,10 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C321" s="2"/>
       <c r="D321" t="s" s="2">
@@ -35873,7 +35855,7 @@
       </c>
       <c r="Q321" s="2"/>
       <c r="R321" t="s" s="2">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="S321" t="s" s="2">
         <v>77</v>
@@ -35935,10 +35917,10 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" t="s" s="2">
@@ -35964,10 +35946,10 @@
         <v>137</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="N322" s="2"/>
       <c r="O322" s="2"/>
@@ -35994,13 +35976,13 @@
         <v>77</v>
       </c>
       <c r="X322" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y322" t="s" s="2">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="Z322" t="s" s="2">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="AA322" t="s" s="2">
         <v>77</v>
@@ -36038,7 +36020,7 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B323" t="s" s="2">
         <v>113</v>
@@ -36081,7 +36063,7 @@
       </c>
       <c r="Q323" s="2"/>
       <c r="R323" t="s" s="2">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="S323" t="s" s="2">
         <v>77</v>
@@ -36143,7 +36125,7 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B324" t="s" s="2">
         <v>121</v>
@@ -36169,13 +36151,13 @@
         <v>77</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N324" s="2"/>
       <c r="O324" s="2"/>
@@ -36246,13 +36228,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B325" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="D325" t="s" s="2">
         <v>77</v>
@@ -36277,14 +36259,14 @@
         <v>93</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="N325" s="2"/>
       <c r="O325" t="s" s="2">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="P325" t="s" s="2">
         <v>77</v>
@@ -36353,7 +36335,7 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B326" t="s" s="2">
         <v>105</v>
@@ -36456,7 +36438,7 @@
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>107</v>
@@ -36559,13 +36541,13 @@
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="D328" t="s" s="2">
         <v>77</v>
@@ -36590,14 +36572,14 @@
         <v>93</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N328" s="2"/>
       <c r="O328" t="s" s="2">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="P328" t="s" s="2">
         <v>77</v>
@@ -36666,10 +36648,10 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C329" s="2"/>
       <c r="D329" t="s" s="2">
@@ -36769,10 +36751,10 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C330" s="2"/>
       <c r="D330" t="s" s="2">
@@ -36874,10 +36856,10 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C331" s="2"/>
       <c r="D331" t="s" s="2">
@@ -36917,7 +36899,7 @@
       </c>
       <c r="Q331" s="2"/>
       <c r="R331" t="s" s="2">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="S331" t="s" s="2">
         <v>77</v>
@@ -36979,10 +36961,10 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C332" s="2"/>
       <c r="D332" t="s" s="2">
@@ -37005,13 +36987,13 @@
         <v>77</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="N332" s="2"/>
       <c r="O332" s="2"/>
@@ -37082,13 +37064,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B333" t="s" s="2">
         <v>107</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D333" t="s" s="2">
         <v>77</v>
@@ -37113,14 +37095,14 @@
         <v>93</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N333" s="2"/>
       <c r="O333" t="s" s="2">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="P333" t="s" s="2">
         <v>77</v>
@@ -37189,10 +37171,10 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C334" s="2"/>
       <c r="D334" t="s" s="2">
@@ -37292,10 +37274,10 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C335" s="2"/>
       <c r="D335" t="s" s="2">
@@ -37397,10 +37379,10 @@
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C336" s="2"/>
       <c r="D336" t="s" s="2">
@@ -37440,7 +37422,7 @@
       </c>
       <c r="Q336" s="2"/>
       <c r="R336" t="s" s="2">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="S336" t="s" s="2">
         <v>77</v>
@@ -37502,10 +37484,10 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C337" s="2"/>
       <c r="D337" t="s" s="2">
@@ -37531,10 +37513,10 @@
         <v>137</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="N337" s="2"/>
       <c r="O337" s="2"/>
@@ -37561,13 +37543,13 @@
         <v>77</v>
       </c>
       <c r="X337" t="s" s="2">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="Y337" t="s" s="2">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="Z337" t="s" s="2">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="AA337" t="s" s="2">
         <v>77</v>
@@ -37605,7 +37587,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>113</v>
@@ -37648,7 +37630,7 @@
       </c>
       <c r="Q338" s="2"/>
       <c r="R338" t="s" s="2">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="S338" t="s" s="2">
         <v>77</v>
@@ -37710,7 +37692,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>121</v>
@@ -37736,13 +37718,13 @@
         <v>77</v>
       </c>
       <c r="K339" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N339" s="2"/>
       <c r="O339" s="2"/>
@@ -37944,13 +37926,13 @@
         <v>77</v>
       </c>
       <c r="K341" t="s" s="2">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="N341" s="2"/>
       <c r="O341" s="2"/>
